--- a/ownername 2020-03/OwnerName Research Results.xlsx
+++ b/ownername 2020-03/OwnerName Research Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Documents\DCP\db-pluto-research\ownername 2020-03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2CC1D13-B9DD-45C0-95B6-74E54D3E30B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4A1B38-4FD8-4DAF-81B3-8ECF5DC51662}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="563" yWindow="360" windowWidth="20504" windowHeight="10785" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6248,7 +6248,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/ownername 2020-03/OwnerName Research Results.xlsx
+++ b/ownername 2020-03/OwnerName Research Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Documents\DCP\db-pluto-research\ownername 2020-03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4A1B38-4FD8-4DAF-81B3-8ECF5DC51662}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A5C737-A370-4479-A471-F33F7328C128}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="563" yWindow="360" windowWidth="20504" windowHeight="10785" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Corrections File" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,20 @@
     <sheet name="City Owned - Non-Agency OwnerN" sheetId="3" r:id="rId3"/>
     <sheet name="Other Owned - Non Agency OwnerN" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="364">
   <si>
     <t>bbl</t>
   </si>
@@ -808,15 +816,6 @@
     <t>ROOSEVELT ISLAND OPERATING CORPORATION</t>
   </si>
   <si>
-    <t>BBL</t>
-  </si>
-  <si>
-    <t>OwnerType</t>
-  </si>
-  <si>
-    <t>OwnerName</t>
-  </si>
-  <si>
     <t>BMCC PERFORMING ARTS CENTER</t>
   </si>
   <si>
@@ -1094,6 +1093,36 @@
   </si>
   <si>
     <t>FEATHERSTONE, YOLANDA</t>
+  </si>
+  <si>
+    <t>C = City</t>
+  </si>
+  <si>
+    <t>S = State</t>
+  </si>
+  <si>
+    <t>F = Federal</t>
+  </si>
+  <si>
+    <t>Agency Level Values</t>
+  </si>
+  <si>
+    <t>20v3</t>
+  </si>
+  <si>
+    <t>ownertype</t>
+  </si>
+  <si>
+    <t>assessland</t>
+  </si>
+  <si>
+    <t>assesstot</t>
+  </si>
+  <si>
+    <t>exempttot</t>
+  </si>
+  <si>
+    <t>difference</t>
   </si>
 </sst>
 </file>
@@ -1610,7 +1639,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1638,7 +1667,6 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1996,10 +2024,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="J38" sqref="J38"/>
+      <selection pane="bottomLeft" activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3019,7 +3047,7 @@
         <v>11</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>100</v>
+        <v>358</v>
       </c>
       <c r="H38" s="8" t="s">
         <v>14</v>
@@ -3049,7 +3077,7 @@
         <v>11</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>100</v>
+        <v>358</v>
       </c>
       <c r="H39" s="8" t="s">
         <v>12</v>
@@ -3079,7 +3107,7 @@
         <v>11</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>100</v>
+        <v>358</v>
       </c>
       <c r="H40" s="8" t="s">
         <v>12</v>
@@ -3109,7 +3137,7 @@
         <v>11</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>100</v>
+        <v>358</v>
       </c>
       <c r="H41" s="8" t="s">
         <v>12</v>
@@ -3139,7 +3167,7 @@
         <v>11</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>100</v>
+        <v>358</v>
       </c>
       <c r="H42" s="8" t="s">
         <v>14</v>
@@ -3171,7 +3199,7 @@
         <v>11</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>100</v>
+        <v>358</v>
       </c>
       <c r="H43" s="8" t="s">
         <v>14</v>
@@ -3201,7 +3229,7 @@
         <v>11</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>100</v>
+        <v>358</v>
       </c>
       <c r="H44" s="8" t="s">
         <v>14</v>
@@ -3231,7 +3259,7 @@
         <v>11</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>100</v>
+        <v>358</v>
       </c>
       <c r="H45" s="8" t="s">
         <v>14</v>
@@ -3261,7 +3289,7 @@
         <v>11</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>100</v>
+        <v>358</v>
       </c>
       <c r="H46" s="8" t="s">
         <v>14</v>
@@ -3291,7 +3319,7 @@
         <v>11</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>100</v>
+        <v>358</v>
       </c>
       <c r="H47" s="8" t="s">
         <v>14</v>
@@ -3321,7 +3349,7 @@
         <v>11</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>100</v>
+        <v>358</v>
       </c>
       <c r="H48" s="8" t="s">
         <v>14</v>
@@ -3353,7 +3381,7 @@
         <v>11</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>100</v>
+        <v>358</v>
       </c>
       <c r="H49" s="8" t="s">
         <v>14</v>
@@ -3383,7 +3411,7 @@
         <v>11</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>100</v>
+        <v>358</v>
       </c>
       <c r="H50" s="8" t="s">
         <v>14</v>
@@ -3413,7 +3441,7 @@
         <v>11</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>100</v>
+        <v>358</v>
       </c>
       <c r="H51" s="8" t="s">
         <v>14</v>
@@ -3443,7 +3471,7 @@
         <v>11</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>100</v>
+        <v>358</v>
       </c>
       <c r="H52" s="8" t="s">
         <v>14</v>
@@ -3473,7 +3501,7 @@
         <v>11</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>100</v>
+        <v>358</v>
       </c>
       <c r="H53" s="8" t="s">
         <v>14</v>
@@ -3503,7 +3531,7 @@
         <v>11</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>100</v>
+        <v>358</v>
       </c>
       <c r="H54" s="8" t="s">
         <v>14</v>
@@ -3533,7 +3561,7 @@
         <v>11</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>100</v>
+        <v>358</v>
       </c>
       <c r="H55" s="8" t="s">
         <v>12</v>
@@ -3563,7 +3591,7 @@
         <v>11</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>100</v>
+        <v>358</v>
       </c>
       <c r="H56" s="8" t="s">
         <v>12</v>
@@ -3593,7 +3621,7 @@
         <v>11</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>100</v>
+        <v>358</v>
       </c>
       <c r="H57" s="8" t="s">
         <v>12</v>
@@ -3623,7 +3651,7 @@
         <v>11</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>100</v>
+        <v>358</v>
       </c>
       <c r="H58" s="8" t="s">
         <v>33</v>
@@ -3645,8 +3673,8 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3735,6 +3763,9 @@
       <c r="D5" t="s">
         <v>14</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
@@ -3749,6 +3780,9 @@
       <c r="D6" t="s">
         <v>14</v>
       </c>
+      <c r="F6" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
@@ -3763,6 +3797,9 @@
       <c r="D7" t="s">
         <v>14</v>
       </c>
+      <c r="F7" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
@@ -3777,6 +3814,9 @@
       <c r="D8" t="s">
         <v>14</v>
       </c>
+      <c r="F8" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
@@ -4522,37 +4562,50 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90CBE267-FF12-4720-A25E-911AE965B248}">
-  <dimension ref="A1:C155"/>
+  <dimension ref="A1:G155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="61.06640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>261</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>262</v>
+        <v>359</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>4006430001</v>
       </c>
@@ -4562,8 +4615,21 @@
       <c r="C2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D2">
+        <v>2349000</v>
+      </c>
+      <c r="E2">
+        <v>18997200</v>
+      </c>
+      <c r="F2">
+        <v>18997200</v>
+      </c>
+      <c r="G2">
+        <f>E2-F2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>3040730050</v>
       </c>
@@ -4573,8 +4639,21 @@
       <c r="C3" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D3">
+        <v>7200</v>
+      </c>
+      <c r="E3">
+        <v>38880</v>
+      </c>
+      <c r="F3">
+        <v>12672</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G66" si="0">E3-F3</f>
+        <v>26208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2026470030</v>
       </c>
@@ -4584,8 +4663,21 @@
       <c r="C4" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D4">
+        <v>10800</v>
+      </c>
+      <c r="E4">
+        <v>25740</v>
+      </c>
+      <c r="F4">
+        <v>4926</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>20814</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1017900045</v>
       </c>
@@ -4595,129 +4687,285 @@
       <c r="C5" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D5">
+        <v>1606950</v>
+      </c>
+      <c r="E5">
+        <v>1606950</v>
+      </c>
+      <c r="F5">
+        <v>1606950</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6">
+        <v>1001280002</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6">
+        <v>17010000</v>
+      </c>
+      <c r="E6">
+        <v>101500000</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>101500000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>1021740188</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7">
+        <v>53550</v>
+      </c>
+      <c r="E7">
+        <v>262440</v>
+      </c>
+      <c r="F7">
+        <v>262440</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>1020240043</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8">
+        <v>5850</v>
+      </c>
+      <c r="E8">
+        <v>5850</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>5850</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>1007660060</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9">
+        <v>108450</v>
+      </c>
+      <c r="E9">
+        <v>1485900</v>
+      </c>
+      <c r="F9">
+        <v>1485900</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>5000020022</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10">
+        <v>2361600</v>
+      </c>
+      <c r="E10">
+        <v>8753400</v>
+      </c>
+      <c r="F10">
+        <v>8753400</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>1010140058</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11">
+        <v>22545000</v>
+      </c>
+      <c r="E11">
+        <v>116604000</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>116604000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>4161000033</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12">
+        <v>16650</v>
+      </c>
+      <c r="E12">
+        <v>16650</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>16650</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13">
         <v>1017900044</v>
       </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>4161000033</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>1021740188</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>1020240043</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <v>1001280002</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11">
-        <v>1007660060</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12">
-        <v>5000020022</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13">
-        <v>1010140058</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D13">
+        <v>851400</v>
+      </c>
+      <c r="E13">
+        <v>851400</v>
+      </c>
+      <c r="F13">
+        <v>851400</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14">
+        <v>3001470004</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14">
+        <v>5445000</v>
+      </c>
+      <c r="E14">
+        <v>88254450</v>
+      </c>
+      <c r="F14">
+        <v>88254450</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15">
         <v>2026330128</v>
       </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A15">
+      <c r="D15">
+        <v>120</v>
+      </c>
+      <c r="E15">
+        <v>120</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16">
         <v>4006440045</v>
       </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A16">
-        <v>3001470004</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D16">
+        <v>1044000</v>
+      </c>
+      <c r="E16">
+        <v>5357250</v>
+      </c>
+      <c r="F16">
+        <v>5357250</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>3019910002</v>
       </c>
@@ -4727,8 +4975,21 @@
       <c r="C17" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D17">
+        <v>26550</v>
+      </c>
+      <c r="E17">
+        <v>85500</v>
+      </c>
+      <c r="F17">
+        <v>85500</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>3055160001</v>
       </c>
@@ -4738,8 +4999,21 @@
       <c r="C18" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>4093380086</v>
       </c>
@@ -4749,8 +5023,21 @@
       <c r="C19" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>3001400111</v>
       </c>
@@ -4760,8 +5047,21 @@
       <c r="C20" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D20">
+        <v>2475000</v>
+      </c>
+      <c r="E20">
+        <v>28084950</v>
+      </c>
+      <c r="F20">
+        <v>24995606</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>3089344</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2023570035</v>
       </c>
@@ -4771,30 +5071,69 @@
       <c r="C21" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D21">
+        <v>4508100</v>
+      </c>
+      <c r="E21">
+        <v>51076350</v>
+      </c>
+      <c r="F21">
+        <v>51076350</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22">
+        <v>1021240001</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D22">
+        <v>153000</v>
+      </c>
+      <c r="E22">
+        <v>6131700</v>
+      </c>
+      <c r="F22">
+        <v>6131700</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23">
         <v>3036440200</v>
       </c>
-      <c r="B22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A23">
-        <v>1021240001</v>
-      </c>
-      <c r="B23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D23">
+        <v>101700</v>
+      </c>
+      <c r="E23">
+        <v>179100</v>
+      </c>
+      <c r="F23">
+        <v>101700</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>77400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>4006440001</v>
       </c>
@@ -4804,8 +5143,21 @@
       <c r="C24" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D24">
+        <v>909000</v>
+      </c>
+      <c r="E24">
+        <v>12705300</v>
+      </c>
+      <c r="F24">
+        <v>12705300</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>5036020001</v>
       </c>
@@ -4815,30 +5167,69 @@
       <c r="C25" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26">
+        <v>2024180006</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>166</v>
+      </c>
+      <c r="D26">
+        <v>18000</v>
+      </c>
+      <c r="E26">
+        <v>18000</v>
+      </c>
+      <c r="F26">
+        <v>18000</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A27">
         <v>2023570042</v>
       </c>
-      <c r="B26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A27">
-        <v>5021650035</v>
-      </c>
-      <c r="B27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D27">
+        <v>117000</v>
+      </c>
+      <c r="E27">
+        <v>182700</v>
+      </c>
+      <c r="F27">
+        <v>182700</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>2037020101</v>
       </c>
@@ -4848,52 +5239,117 @@
       <c r="C28" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D28">
+        <v>525150</v>
+      </c>
+      <c r="E28">
+        <v>1652850</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>1652850</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29">
+        <v>5021650035</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>163</v>
+      </c>
+      <c r="D29">
+        <v>2372400</v>
+      </c>
+      <c r="E29">
+        <v>9537300</v>
+      </c>
+      <c r="F29">
+        <v>9537300</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A30">
         <v>2038340081</v>
       </c>
-      <c r="B29" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A30">
-        <v>2024180006</v>
-      </c>
-      <c r="B30" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D30">
+        <v>1104300</v>
+      </c>
+      <c r="E30">
+        <v>9464400</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>9464400</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31">
+        <v>3036440180</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>168</v>
+      </c>
+      <c r="D31">
+        <v>85950</v>
+      </c>
+      <c r="E31">
+        <v>269100</v>
+      </c>
+      <c r="F31">
+        <v>85950</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>183150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A32">
         <v>3081380205</v>
       </c>
-      <c r="B31" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A32">
-        <v>3036440180</v>
-      </c>
-      <c r="B32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D32">
+        <v>337500</v>
+      </c>
+      <c r="E32">
+        <v>1086750</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>1086750</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>3017780014</v>
       </c>
@@ -4903,8 +5359,21 @@
       <c r="C33" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D33">
+        <v>9000</v>
+      </c>
+      <c r="E33">
+        <v>295380</v>
+      </c>
+      <c r="F33">
+        <v>85044</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>210336</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>3019910003</v>
       </c>
@@ -4914,8 +5383,21 @@
       <c r="C34" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D34">
+        <v>103500</v>
+      </c>
+      <c r="E34">
+        <v>103500</v>
+      </c>
+      <c r="F34">
+        <v>103500</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>4042340130</v>
       </c>
@@ -4925,8 +5407,21 @@
       <c r="C35" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D35">
+        <v>120</v>
+      </c>
+      <c r="E35">
+        <v>120</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>1003720049</v>
       </c>
@@ -4936,74 +5431,165 @@
       <c r="C36" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D36">
+        <v>1012950</v>
+      </c>
+      <c r="E36">
+        <v>1012950</v>
+      </c>
+      <c r="F36">
+        <v>1012950</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37">
+        <v>1004060047</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37">
+        <v>206100</v>
+      </c>
+      <c r="E37">
+        <v>1207800</v>
+      </c>
+      <c r="F37">
+        <v>34495</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>1173305</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A38">
         <v>2051010069</v>
       </c>
-      <c r="B37" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A38">
-        <v>1004060047</v>
-      </c>
-      <c r="B38" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D38">
+        <v>117450</v>
+      </c>
+      <c r="E38">
+        <v>117450</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>117450</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39">
+        <v>5011250017</v>
+      </c>
+      <c r="B39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" t="s">
+        <v>174</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A40">
         <v>1019950053</v>
       </c>
-      <c r="B39" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="B40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A40">
-        <v>5011250017</v>
-      </c>
-      <c r="B40" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D40">
+        <v>585000</v>
+      </c>
+      <c r="E40">
+        <v>9088650</v>
+      </c>
+      <c r="F40">
+        <v>9088650</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41">
+        <v>3001320023</v>
+      </c>
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" t="s">
+        <v>176</v>
+      </c>
+      <c r="D41">
+        <v>899550</v>
+      </c>
+      <c r="E41">
+        <v>13954050</v>
+      </c>
+      <c r="F41">
+        <v>13954050</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A42">
         <v>2028440048</v>
       </c>
-      <c r="B41" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="B42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A42">
-        <v>3001320023</v>
-      </c>
-      <c r="B42" t="s">
-        <v>14</v>
-      </c>
-      <c r="C42" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D42">
+        <v>60</v>
+      </c>
+      <c r="E42">
+        <v>60</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>2023570032</v>
       </c>
@@ -5013,8 +5599,21 @@
       <c r="C43" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D43">
+        <v>428850</v>
+      </c>
+      <c r="E43">
+        <v>428850</v>
+      </c>
+      <c r="F43">
+        <v>428850</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>3007040007</v>
       </c>
@@ -5024,107 +5623,237 @@
       <c r="C44" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45">
+        <v>3020310001</v>
+      </c>
+      <c r="B45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" t="s">
+        <v>169</v>
+      </c>
+      <c r="D45">
+        <v>211950</v>
+      </c>
+      <c r="E45">
+        <v>613440</v>
+      </c>
+      <c r="F45">
+        <v>143113</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="0"/>
+        <v>470327</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A46">
         <v>3042490061</v>
       </c>
-      <c r="B45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="B46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A46">
+      <c r="D46">
+        <v>17048</v>
+      </c>
+      <c r="E46">
+        <v>36720</v>
+      </c>
+      <c r="F46">
+        <v>15737</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="0"/>
+        <v>20983</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A47">
         <v>1000960001</v>
       </c>
-      <c r="B46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="B47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A47">
-        <v>3020310001</v>
-      </c>
-      <c r="B47" t="s">
-        <v>14</v>
-      </c>
-      <c r="C47" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D47">
+        <v>5400000</v>
+      </c>
+      <c r="E47">
+        <v>25437150</v>
+      </c>
+      <c r="F47">
+        <v>25437150</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48">
+        <v>1012110007</v>
+      </c>
+      <c r="B48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" t="s">
+        <v>182</v>
+      </c>
+      <c r="D48">
+        <v>352800</v>
+      </c>
+      <c r="E48">
+        <v>1011600</v>
+      </c>
+      <c r="F48">
+        <v>1011600</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A49">
         <v>1018800013</v>
       </c>
-      <c r="B48" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="B49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A49">
-        <v>1012110007</v>
-      </c>
-      <c r="B49" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D49">
+        <v>1966500</v>
+      </c>
+      <c r="E49">
+        <v>6139800</v>
+      </c>
+      <c r="F49">
+        <v>6139800</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50">
+        <v>4114240015</v>
+      </c>
+      <c r="B50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" t="s">
+        <v>184</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A51">
         <v>5027580012</v>
       </c>
-      <c r="B50" t="s">
-        <v>14</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A51">
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A52">
         <v>2038490001</v>
       </c>
-      <c r="B51" t="s">
-        <v>14</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="B52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A52">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A53">
         <v>3001320001</v>
       </c>
-      <c r="B52" t="s">
-        <v>14</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="B53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A53">
-        <v>4114240015</v>
-      </c>
-      <c r="B53" t="s">
-        <v>14</v>
-      </c>
-      <c r="C53" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D53">
+        <v>1291500</v>
+      </c>
+      <c r="E53">
+        <v>21424050</v>
+      </c>
+      <c r="F53">
+        <v>21424050</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>2029150001</v>
       </c>
@@ -5134,85 +5863,189 @@
       <c r="C54" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D54">
+        <v>606600</v>
+      </c>
+      <c r="E54">
+        <v>4676400</v>
+      </c>
+      <c r="F54">
+        <v>4676400</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55">
+        <v>3055030001</v>
+      </c>
+      <c r="B55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" t="s">
+        <v>190</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A56">
         <v>3081520201</v>
       </c>
-      <c r="B55" t="s">
-        <v>14</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="B56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A56">
+      <c r="D56">
+        <v>204300</v>
+      </c>
+      <c r="E56">
+        <v>860850</v>
+      </c>
+      <c r="F56">
+        <v>204300</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="0"/>
+        <v>656550</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A57">
         <v>3007710001</v>
       </c>
-      <c r="B56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="B57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A57">
+      <c r="D57">
+        <v>240300</v>
+      </c>
+      <c r="E57">
+        <v>1004400</v>
+      </c>
+      <c r="F57">
+        <v>101722</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="0"/>
+        <v>902678</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A58">
         <v>1020340003</v>
       </c>
-      <c r="B57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="B58" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A58">
+      <c r="D58">
+        <v>31050</v>
+      </c>
+      <c r="E58">
+        <v>890100</v>
+      </c>
+      <c r="F58">
+        <v>890100</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A59">
         <v>4160810045</v>
       </c>
-      <c r="B58" t="s">
-        <v>14</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="B59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A59">
+      <c r="D59">
+        <v>1350450</v>
+      </c>
+      <c r="E59">
+        <v>6465150</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="0"/>
+        <v>6465150</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A60">
         <v>1004060006</v>
       </c>
-      <c r="B59" t="s">
-        <v>14</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="B60" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A60">
+      <c r="D60">
+        <v>271800</v>
+      </c>
+      <c r="E60">
+        <v>1318500</v>
+      </c>
+      <c r="F60">
+        <v>158026</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="0"/>
+        <v>1160474</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A61">
         <v>2023810043</v>
       </c>
-      <c r="B60" t="s">
-        <v>14</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="B61" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A61">
-        <v>3055030001</v>
-      </c>
-      <c r="B61" t="s">
-        <v>14</v>
-      </c>
-      <c r="C61" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D61">
+        <v>15000</v>
+      </c>
+      <c r="E61">
+        <v>15000</v>
+      </c>
+      <c r="F61">
+        <v>15000</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>2025260090</v>
       </c>
@@ -5222,30 +6055,69 @@
       <c r="C62" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D62">
+        <v>330750</v>
+      </c>
+      <c r="E62">
+        <v>8826300</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="0"/>
+        <v>8826300</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63">
+        <v>5022180150</v>
+      </c>
+      <c r="B63" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" t="s">
+        <v>161</v>
+      </c>
+      <c r="D63">
+        <v>18120</v>
+      </c>
+      <c r="E63">
+        <v>18120</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="0"/>
+        <v>18120</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A64">
         <v>2022680027</v>
       </c>
-      <c r="B63" t="s">
-        <v>14</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="B64" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A64">
-        <v>5022180150</v>
-      </c>
-      <c r="B64" t="s">
-        <v>14</v>
-      </c>
-      <c r="C64" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D64">
+        <v>526500</v>
+      </c>
+      <c r="E64">
+        <v>526500</v>
+      </c>
+      <c r="F64">
+        <v>526500</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>3001480007</v>
       </c>
@@ -5255,52 +6127,117 @@
       <c r="C65" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D65">
+        <v>4266000</v>
+      </c>
+      <c r="E65">
+        <v>52470900</v>
+      </c>
+      <c r="F65">
+        <v>52470900</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66">
+        <v>3014870026</v>
+      </c>
+      <c r="B66" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" t="s">
+        <v>196</v>
+      </c>
+      <c r="D66">
+        <v>17700</v>
+      </c>
+      <c r="E66">
+        <v>95400</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="0"/>
+        <v>95400</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A67">
+        <v>2023560025</v>
+      </c>
+      <c r="B67" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" t="s">
+        <v>177</v>
+      </c>
+      <c r="D67">
+        <v>760500</v>
+      </c>
+      <c r="E67">
+        <v>2061450</v>
+      </c>
+      <c r="F67">
+        <v>2061450</v>
+      </c>
+      <c r="G67">
+        <f t="shared" ref="G67:G130" si="1">E67-F67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A68">
         <v>3020470040</v>
       </c>
-      <c r="B66" t="s">
-        <v>14</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="B68" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A67">
+      <c r="D68">
+        <v>3793500</v>
+      </c>
+      <c r="E68">
+        <v>72179100</v>
+      </c>
+      <c r="F68">
+        <v>72179100</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A69">
         <v>3020020001</v>
       </c>
-      <c r="B67" t="s">
-        <v>14</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="B69" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A68">
-        <v>2023560025</v>
-      </c>
-      <c r="B68" t="s">
-        <v>14</v>
-      </c>
-      <c r="C68" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A69">
-        <v>3014870026</v>
-      </c>
-      <c r="B69" t="s">
-        <v>14</v>
-      </c>
-      <c r="C69" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D69">
+        <v>5175000</v>
+      </c>
+      <c r="E69">
+        <v>46177200</v>
+      </c>
+      <c r="F69">
+        <v>46177200</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>1010140025</v>
       </c>
@@ -5310,8 +6247,21 @@
       <c r="C70" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D70">
+        <v>1710000</v>
+      </c>
+      <c r="E70">
+        <v>3182850</v>
+      </c>
+      <c r="F70">
+        <v>3182850</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>1013370014</v>
       </c>
@@ -5321,8 +6271,21 @@
       <c r="C71" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D71">
+        <v>14850000</v>
+      </c>
+      <c r="E71">
+        <v>69565500</v>
+      </c>
+      <c r="F71">
+        <v>54715500</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="1"/>
+        <v>14850000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>1018630001</v>
       </c>
@@ -5332,74 +6295,165 @@
       <c r="C72" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D72">
+        <v>90000</v>
+      </c>
+      <c r="E72">
+        <v>1040400</v>
+      </c>
+      <c r="F72">
+        <v>1040400</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73">
+        <v>1018600027</v>
+      </c>
+      <c r="B73" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" t="s">
+        <v>199</v>
+      </c>
+      <c r="D73">
+        <v>90000</v>
+      </c>
+      <c r="E73">
+        <v>933300</v>
+      </c>
+      <c r="F73">
+        <v>933300</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A74">
         <v>4142600100</v>
       </c>
-      <c r="B73" t="s">
-        <v>14</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="B74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A74">
-        <v>1018600027</v>
-      </c>
-      <c r="B74" t="s">
-        <v>14</v>
-      </c>
-      <c r="C74" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D74">
+        <v>1233450</v>
+      </c>
+      <c r="E74">
+        <v>1233450</v>
+      </c>
+      <c r="F74">
+        <v>1233450</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75">
+        <v>3002390001</v>
+      </c>
+      <c r="B75" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" t="s">
+        <v>204</v>
+      </c>
+      <c r="D75">
+        <v>4009500</v>
+      </c>
+      <c r="E75">
+        <v>68317200</v>
+      </c>
+      <c r="F75">
+        <v>319500</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="1"/>
+        <v>67997700</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A76">
         <v>2032660013</v>
       </c>
-      <c r="B75" t="s">
-        <v>14</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="B76" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A76">
+      <c r="D76">
+        <v>1976850</v>
+      </c>
+      <c r="E76">
+        <v>15525000</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="1"/>
+        <v>15525000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A77">
         <v>2023640058</v>
       </c>
-      <c r="B76" t="s">
-        <v>14</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="B77" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A77">
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A78">
         <v>1000020002</v>
       </c>
-      <c r="B77" t="s">
-        <v>14</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="B78" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A78">
-        <v>3002390001</v>
-      </c>
-      <c r="B78" t="s">
-        <v>14</v>
-      </c>
-      <c r="C78" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D78">
+        <v>18787500</v>
+      </c>
+      <c r="E78">
+        <v>26151750</v>
+      </c>
+      <c r="F78">
+        <v>26151750</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>5009550075</v>
       </c>
@@ -5409,74 +6463,165 @@
       <c r="C79" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D79">
+        <v>1358100</v>
+      </c>
+      <c r="E79">
+        <v>2812050</v>
+      </c>
+      <c r="F79">
+        <v>1453950</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="1"/>
+        <v>1358100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80">
+        <v>3010070006</v>
+      </c>
+      <c r="B80" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" t="s">
+        <v>211</v>
+      </c>
+      <c r="D80">
+        <v>97200</v>
+      </c>
+      <c r="E80">
+        <v>123300</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="1"/>
+        <v>123300</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A81">
         <v>4044030001</v>
       </c>
-      <c r="B80" t="s">
-        <v>14</v>
-      </c>
-      <c r="C80" t="s">
+      <c r="B81" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A81">
+      <c r="D81">
+        <v>346500</v>
+      </c>
+      <c r="E81">
+        <v>1136700</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="1"/>
+        <v>1136700</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A82">
         <v>3018350105</v>
       </c>
-      <c r="B81" t="s">
-        <v>14</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="B82" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A82">
+      <c r="D82">
+        <v>900</v>
+      </c>
+      <c r="E82">
+        <v>900</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A83">
         <v>3050630058</v>
       </c>
-      <c r="B82" t="s">
-        <v>14</v>
-      </c>
-      <c r="C82" t="s">
+      <c r="B83" t="s">
+        <v>14</v>
+      </c>
+      <c r="C83" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A83">
+      <c r="D83">
+        <v>322650</v>
+      </c>
+      <c r="E83">
+        <v>670500</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="1"/>
+        <v>670500</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A84">
         <v>4000060020</v>
       </c>
-      <c r="B83" t="s">
-        <v>14</v>
-      </c>
-      <c r="C83" t="s">
+      <c r="B84" t="s">
+        <v>14</v>
+      </c>
+      <c r="C84" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A84">
+      <c r="D84">
+        <v>73440</v>
+      </c>
+      <c r="E84">
+        <v>73440</v>
+      </c>
+      <c r="F84">
+        <v>73440</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A85">
         <v>3032930033</v>
       </c>
-      <c r="B84" t="s">
-        <v>14</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="B85" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A85">
-        <v>3010070006</v>
-      </c>
-      <c r="B85" t="s">
-        <v>14</v>
-      </c>
-      <c r="C85" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D85">
+        <v>2700</v>
+      </c>
+      <c r="E85">
+        <v>2700</v>
+      </c>
+      <c r="F85">
+        <v>2700</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>2029810014</v>
       </c>
@@ -5486,63 +6631,141 @@
       <c r="C86" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D86">
+        <v>45000</v>
+      </c>
+      <c r="E86">
+        <v>45000</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="1"/>
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87">
+        <v>5021650050</v>
+      </c>
+      <c r="B87" t="s">
+        <v>14</v>
+      </c>
+      <c r="C87" t="s">
+        <v>163</v>
+      </c>
+      <c r="D87">
+        <v>1440450</v>
+      </c>
+      <c r="E87">
+        <v>6808500</v>
+      </c>
+      <c r="F87">
+        <v>6808500</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A88">
         <v>3087250001</v>
       </c>
-      <c r="B87" t="s">
-        <v>14</v>
-      </c>
-      <c r="C87" t="s">
+      <c r="B88" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A88">
-        <v>5021650050</v>
-      </c>
-      <c r="B88" t="s">
-        <v>14</v>
-      </c>
-      <c r="C88" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D88">
+        <v>8486100</v>
+      </c>
+      <c r="E88">
+        <v>10493550</v>
+      </c>
+      <c r="F88">
+        <v>10493550</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89">
+        <v>1010090005</v>
+      </c>
+      <c r="B89" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89" t="s">
+        <v>216</v>
+      </c>
+      <c r="D89">
+        <v>27000000</v>
+      </c>
+      <c r="E89">
+        <v>122000000</v>
+      </c>
+      <c r="F89">
+        <v>122000000</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A90">
         <v>3081340001</v>
       </c>
-      <c r="B89" t="s">
-        <v>14</v>
-      </c>
-      <c r="C89" t="s">
+      <c r="B90" t="s">
+        <v>14</v>
+      </c>
+      <c r="C90" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A90">
+      <c r="D90">
+        <v>1653750</v>
+      </c>
+      <c r="E90">
+        <v>9372150</v>
+      </c>
+      <c r="F90">
+        <v>1653750</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="1"/>
+        <v>7718400</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A91">
         <v>4042820100</v>
       </c>
-      <c r="B90" t="s">
-        <v>14</v>
-      </c>
-      <c r="C90" t="s">
+      <c r="B91" t="s">
+        <v>14</v>
+      </c>
+      <c r="C91" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A91">
-        <v>1010090005</v>
-      </c>
-      <c r="B91" t="s">
-        <v>14</v>
-      </c>
-      <c r="C91" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D91">
+        <v>10955250</v>
+      </c>
+      <c r="E91">
+        <v>24618150</v>
+      </c>
+      <c r="F91">
+        <v>24618150</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>4101000001</v>
       </c>
@@ -5552,8 +6775,21 @@
       <c r="C92" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D92">
+        <v>3622950</v>
+      </c>
+      <c r="E92">
+        <v>28184400</v>
+      </c>
+      <c r="F92">
+        <v>28184400</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>3088762850</v>
       </c>
@@ -5563,52 +6799,117 @@
       <c r="C93" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D93">
+        <v>2100</v>
+      </c>
+      <c r="E93">
+        <v>2100</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="1"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94">
+        <v>1007070056</v>
+      </c>
+      <c r="B94" t="s">
+        <v>14</v>
+      </c>
+      <c r="C94" t="s">
+        <v>113</v>
+      </c>
+      <c r="D94">
+        <v>299700</v>
+      </c>
+      <c r="E94">
+        <v>299700</v>
+      </c>
+      <c r="F94">
+        <v>299700</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A95">
+        <v>4043940001</v>
+      </c>
+      <c r="B95" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95" t="s">
+        <v>221</v>
+      </c>
+      <c r="D95">
+        <v>363150</v>
+      </c>
+      <c r="E95">
+        <v>363150</v>
+      </c>
+      <c r="F95">
+        <v>363150</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A96">
         <v>1016170020</v>
       </c>
-      <c r="B94" t="s">
-        <v>14</v>
-      </c>
-      <c r="C94" t="s">
+      <c r="B96" t="s">
+        <v>14</v>
+      </c>
+      <c r="C96" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A95">
+      <c r="D96">
+        <v>3863250</v>
+      </c>
+      <c r="E96">
+        <v>3863250</v>
+      </c>
+      <c r="F96">
+        <v>3863250</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A97">
         <v>3020230150</v>
       </c>
-      <c r="B95" t="s">
-        <v>14</v>
-      </c>
-      <c r="C95" t="s">
+      <c r="B97" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A96">
-        <v>4043940001</v>
-      </c>
-      <c r="B96" t="s">
-        <v>14</v>
-      </c>
-      <c r="C96" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A97">
-        <v>1007070056</v>
-      </c>
-      <c r="B97" t="s">
-        <v>14</v>
-      </c>
-      <c r="C97" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D97">
+        <v>14049900</v>
+      </c>
+      <c r="E97">
+        <v>33191550</v>
+      </c>
+      <c r="F97">
+        <v>33191550</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>2056480251</v>
       </c>
@@ -5618,8 +6919,21 @@
       <c r="C98" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D98">
+        <v>5520</v>
+      </c>
+      <c r="E98">
+        <v>5520</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="1"/>
+        <v>5520</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>3020470011</v>
       </c>
@@ -5629,63 +6943,141 @@
       <c r="C99" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D99">
+        <v>4019400</v>
+      </c>
+      <c r="E99">
+        <v>55716300</v>
+      </c>
+      <c r="F99">
+        <v>55716300</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100">
+        <v>3028570013</v>
+      </c>
+      <c r="B100" t="s">
+        <v>14</v>
+      </c>
+      <c r="C100" t="s">
+        <v>225</v>
+      </c>
+      <c r="D100">
+        <v>60</v>
+      </c>
+      <c r="E100">
+        <v>60</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A101">
         <v>4000060060</v>
       </c>
-      <c r="B100" t="s">
-        <v>14</v>
-      </c>
-      <c r="C100" t="s">
+      <c r="B101" t="s">
+        <v>14</v>
+      </c>
+      <c r="C101" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A101">
-        <v>3028570013</v>
-      </c>
-      <c r="B101" t="s">
-        <v>14</v>
-      </c>
-      <c r="C101" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D101">
+        <v>957600</v>
+      </c>
+      <c r="E101">
+        <v>957600</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="1"/>
+        <v>957600</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A102">
+        <v>3069550105</v>
+      </c>
+      <c r="B102" t="s">
+        <v>14</v>
+      </c>
+      <c r="C102" t="s">
+        <v>227</v>
+      </c>
+      <c r="D102">
+        <v>360</v>
+      </c>
+      <c r="E102">
+        <v>360</v>
+      </c>
+      <c r="F102">
+        <v>201</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="1"/>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A103">
         <v>4002100129</v>
       </c>
-      <c r="B102" t="s">
-        <v>14</v>
-      </c>
-      <c r="C102" t="s">
+      <c r="B103" t="s">
+        <v>14</v>
+      </c>
+      <c r="C103" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A103">
-        <v>3069550105</v>
-      </c>
-      <c r="B103" t="s">
-        <v>14</v>
-      </c>
-      <c r="C103" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D103">
+        <v>540</v>
+      </c>
+      <c r="E103">
+        <v>540</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="1"/>
+        <v>540</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A104">
-        <v>3055090041</v>
+        <v>4006430100</v>
       </c>
       <c r="B104" t="s">
         <v>14</v>
       </c>
       <c r="C104" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+        <v>229</v>
+      </c>
+      <c r="D104">
+        <v>75540</v>
+      </c>
+      <c r="E104">
+        <v>75540</v>
+      </c>
+      <c r="F104">
+        <v>75540</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>2044110125</v>
       </c>
@@ -5695,107 +7087,237 @@
       <c r="C105" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D105">
+        <v>44520</v>
+      </c>
+      <c r="E105">
+        <v>44520</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="1"/>
+        <v>44520</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A106">
+        <v>3055090041</v>
+      </c>
+      <c r="B106" t="s">
+        <v>14</v>
+      </c>
+      <c r="C106" t="s">
+        <v>154</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A107">
         <v>1007770037</v>
       </c>
-      <c r="B106" t="s">
-        <v>14</v>
-      </c>
-      <c r="C106" t="s">
+      <c r="B107" t="s">
+        <v>14</v>
+      </c>
+      <c r="C107" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A107">
-        <v>4006430100</v>
-      </c>
-      <c r="B107" t="s">
-        <v>14</v>
-      </c>
-      <c r="C107" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D107">
+        <v>6300000</v>
+      </c>
+      <c r="E107">
+        <v>32337900</v>
+      </c>
+      <c r="F107">
+        <v>32337900</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A108">
+        <v>4161110001</v>
+      </c>
+      <c r="B108" t="s">
+        <v>14</v>
+      </c>
+      <c r="C108" t="s">
+        <v>230</v>
+      </c>
+      <c r="D108">
+        <v>12300</v>
+      </c>
+      <c r="E108">
+        <v>43500</v>
+      </c>
+      <c r="F108">
+        <v>4269</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="1"/>
+        <v>39231</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A109">
         <v>1017900006</v>
       </c>
-      <c r="B108" t="s">
-        <v>14</v>
-      </c>
-      <c r="C108" t="s">
+      <c r="B109" t="s">
+        <v>14</v>
+      </c>
+      <c r="C109" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A109">
-        <v>4161110001</v>
-      </c>
-      <c r="B109" t="s">
-        <v>14</v>
-      </c>
-      <c r="C109" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D109">
+        <v>1459350</v>
+      </c>
+      <c r="E109">
+        <v>1459350</v>
+      </c>
+      <c r="F109">
+        <v>1459350</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A110">
+        <v>3017020001</v>
+      </c>
+      <c r="B110" t="s">
+        <v>14</v>
+      </c>
+      <c r="C110" t="s">
+        <v>234</v>
+      </c>
+      <c r="D110">
+        <v>390150</v>
+      </c>
+      <c r="E110">
+        <v>4654350</v>
+      </c>
+      <c r="F110">
+        <v>4654350</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A111">
         <v>4042070020</v>
       </c>
-      <c r="B110" t="s">
-        <v>14</v>
-      </c>
-      <c r="C110" t="s">
+      <c r="B111" t="s">
+        <v>14</v>
+      </c>
+      <c r="C111" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A111">
+      <c r="D111">
+        <v>760950</v>
+      </c>
+      <c r="E111">
+        <v>760950</v>
+      </c>
+      <c r="F111">
+        <v>760950</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A112">
         <v>1013730020</v>
       </c>
-      <c r="B111" t="s">
-        <v>14</v>
-      </c>
-      <c r="C111" t="s">
+      <c r="B112" t="s">
+        <v>14</v>
+      </c>
+      <c r="C112" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A112">
+      <c r="D112">
+        <v>23368950</v>
+      </c>
+      <c r="E112">
+        <v>23368950</v>
+      </c>
+      <c r="F112">
+        <v>23368950</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A113">
         <v>3066590132</v>
       </c>
-      <c r="B112" t="s">
-        <v>14</v>
-      </c>
-      <c r="C112" t="s">
+      <c r="B113" t="s">
+        <v>14</v>
+      </c>
+      <c r="C113" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A113">
+      <c r="D113">
+        <v>60</v>
+      </c>
+      <c r="E113">
+        <v>60</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A114">
         <v>1017900008</v>
       </c>
-      <c r="B113" t="s">
-        <v>14</v>
-      </c>
-      <c r="C113" t="s">
+      <c r="B114" t="s">
+        <v>14</v>
+      </c>
+      <c r="C114" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A114">
-        <v>3017020001</v>
-      </c>
-      <c r="B114" t="s">
-        <v>14</v>
-      </c>
-      <c r="C114" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D114">
+        <v>262800</v>
+      </c>
+      <c r="E114">
+        <v>802756</v>
+      </c>
+      <c r="F114">
+        <v>401378</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="1"/>
+        <v>401378</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>4000060030</v>
       </c>
@@ -5805,30 +7327,69 @@
       <c r="C115" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D115">
+        <v>208200</v>
+      </c>
+      <c r="E115">
+        <v>208200</v>
+      </c>
+      <c r="F115">
+        <v>96316</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="1"/>
+        <v>111884</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A116">
+        <v>2022770050</v>
+      </c>
+      <c r="B116" t="s">
+        <v>14</v>
+      </c>
+      <c r="C116" t="s">
+        <v>236</v>
+      </c>
+      <c r="D116">
+        <v>153900</v>
+      </c>
+      <c r="E116">
+        <v>295200</v>
+      </c>
+      <c r="F116">
+        <v>295200</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A117">
         <v>5021650005</v>
       </c>
-      <c r="B116" t="s">
-        <v>14</v>
-      </c>
-      <c r="C116" t="s">
+      <c r="B117" t="s">
+        <v>14</v>
+      </c>
+      <c r="C117" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A117">
-        <v>2022770050</v>
-      </c>
-      <c r="B117" t="s">
-        <v>14</v>
-      </c>
-      <c r="C117" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D117">
+        <v>3105900</v>
+      </c>
+      <c r="E117">
+        <v>13004550</v>
+      </c>
+      <c r="F117">
+        <v>13004550</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>3020600008</v>
       </c>
@@ -5838,8 +7399,21 @@
       <c r="C118" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D118">
+        <v>329850</v>
+      </c>
+      <c r="E118">
+        <v>329850</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="1"/>
+        <v>329850</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>5047870002</v>
       </c>
@@ -5849,8 +7423,21 @@
       <c r="C119" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D119">
+        <v>240</v>
+      </c>
+      <c r="E119">
+        <v>240</v>
+      </c>
+      <c r="F119">
+        <v>139</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>3012060020</v>
       </c>
@@ -5860,8 +7447,21 @@
       <c r="C120" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D120">
+        <v>19440</v>
+      </c>
+      <c r="E120">
+        <v>118200</v>
+      </c>
+      <c r="F120">
+        <v>11611</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="1"/>
+        <v>106589</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>3001320014</v>
       </c>
@@ -5871,8 +7471,21 @@
       <c r="C121" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D121">
+        <v>332100</v>
+      </c>
+      <c r="E121">
+        <v>5313600</v>
+      </c>
+      <c r="F121">
+        <v>5313600</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>1017900046</v>
       </c>
@@ -5882,107 +7495,237 @@
       <c r="C122" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D122">
+        <v>108000</v>
+      </c>
+      <c r="E122">
+        <v>549450</v>
+      </c>
+      <c r="F122">
+        <v>94176</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="1"/>
+        <v>455274</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A123">
+        <v>4008450116</v>
+      </c>
+      <c r="B123" t="s">
+        <v>14</v>
+      </c>
+      <c r="C123" t="s">
+        <v>246</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A124">
         <v>3074420028</v>
       </c>
-      <c r="B123" t="s">
-        <v>14</v>
-      </c>
-      <c r="C123" t="s">
+      <c r="B124" t="s">
+        <v>14</v>
+      </c>
+      <c r="C124" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A124">
+      <c r="D124">
+        <v>780</v>
+      </c>
+      <c r="E124">
+        <v>780</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="1"/>
+        <v>780</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A125">
         <v>3013630031</v>
       </c>
-      <c r="B124" t="s">
-        <v>14</v>
-      </c>
-      <c r="C124" t="s">
+      <c r="B125" t="s">
+        <v>14</v>
+      </c>
+      <c r="C125" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A125">
+      <c r="D125">
+        <v>9180</v>
+      </c>
+      <c r="E125">
+        <v>9180</v>
+      </c>
+      <c r="F125">
+        <v>1413</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="1"/>
+        <v>7767</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A126">
         <v>3072120052</v>
       </c>
-      <c r="B125" t="s">
-        <v>14</v>
-      </c>
-      <c r="C125" t="s">
+      <c r="B126" t="s">
+        <v>14</v>
+      </c>
+      <c r="C126" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A126">
+      <c r="D126">
+        <v>71100</v>
+      </c>
+      <c r="E126">
+        <v>71100</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="1"/>
+        <v>71100</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A127">
+        <v>4161000029</v>
+      </c>
+      <c r="B127" t="s">
+        <v>14</v>
+      </c>
+      <c r="C127" t="s">
+        <v>244</v>
+      </c>
+      <c r="D127">
+        <v>99900</v>
+      </c>
+      <c r="E127">
+        <v>99900</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <f t="shared" si="1"/>
+        <v>99900</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A128">
+        <v>2023570065</v>
+      </c>
+      <c r="B128" t="s">
+        <v>14</v>
+      </c>
+      <c r="C128" t="s">
+        <v>162</v>
+      </c>
+      <c r="D128">
+        <v>2546550</v>
+      </c>
+      <c r="E128">
+        <v>2546550</v>
+      </c>
+      <c r="F128">
+        <v>2546550</v>
+      </c>
+      <c r="G128">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A129">
         <v>2043450048</v>
       </c>
-      <c r="B126" t="s">
-        <v>14</v>
-      </c>
-      <c r="C126" t="s">
+      <c r="B129" t="s">
+        <v>14</v>
+      </c>
+      <c r="C129" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A127">
+      <c r="D129">
+        <v>83250</v>
+      </c>
+      <c r="E129">
+        <v>386550</v>
+      </c>
+      <c r="F129">
+        <v>386550</v>
+      </c>
+      <c r="G129">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A130">
         <v>4102590001</v>
       </c>
-      <c r="B127" t="s">
-        <v>14</v>
-      </c>
-      <c r="C127" t="s">
+      <c r="B130" t="s">
+        <v>14</v>
+      </c>
+      <c r="C130" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A128">
-        <v>4161000029</v>
-      </c>
-      <c r="B128" t="s">
-        <v>14</v>
-      </c>
-      <c r="C128" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A129">
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A131">
         <v>5023700162</v>
       </c>
-      <c r="B129" t="s">
-        <v>14</v>
-      </c>
-      <c r="C129" t="s">
+      <c r="B131" t="s">
+        <v>14</v>
+      </c>
+      <c r="C131" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A130">
-        <v>2023570065</v>
-      </c>
-      <c r="B130" t="s">
-        <v>14</v>
-      </c>
-      <c r="C130" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A131">
-        <v>4008450116</v>
-      </c>
-      <c r="B131" t="s">
-        <v>14</v>
-      </c>
-      <c r="C131" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D131">
+        <v>37680</v>
+      </c>
+      <c r="E131">
+        <v>37680</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <f t="shared" ref="G131:G155" si="2">E131-F131</f>
+        <v>37680</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>5000020018</v>
       </c>
@@ -5992,8 +7735,21 @@
       <c r="C132" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D132">
+        <v>297450</v>
+      </c>
+      <c r="E132">
+        <v>297450</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <f t="shared" si="2"/>
+        <v>297450</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>4160130050</v>
       </c>
@@ -6003,8 +7759,21 @@
       <c r="C133" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D133">
+        <v>45000</v>
+      </c>
+      <c r="E133">
+        <v>45000</v>
+      </c>
+      <c r="F133">
+        <v>45000</v>
+      </c>
+      <c r="G133">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>4133420058</v>
       </c>
@@ -6014,8 +7783,21 @@
       <c r="C134" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D134">
+        <v>600</v>
+      </c>
+      <c r="E134">
+        <v>600</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <f t="shared" si="2"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>2022940055</v>
       </c>
@@ -6025,63 +7807,141 @@
       <c r="C135" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D135">
+        <v>2250</v>
+      </c>
+      <c r="E135">
+        <v>2250</v>
+      </c>
+      <c r="F135">
+        <v>2250</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A136">
+        <v>3081650147</v>
+      </c>
+      <c r="B136" t="s">
+        <v>14</v>
+      </c>
+      <c r="C136" t="s">
+        <v>251</v>
+      </c>
+      <c r="D136">
+        <v>57150</v>
+      </c>
+      <c r="E136">
+        <v>57150</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <f t="shared" si="2"/>
+        <v>57150</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A137">
         <v>1013730025</v>
       </c>
-      <c r="B136" t="s">
-        <v>14</v>
-      </c>
-      <c r="C136" t="s">
+      <c r="B137" t="s">
+        <v>14</v>
+      </c>
+      <c r="C137" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A137">
-        <v>3081650147</v>
-      </c>
-      <c r="B137" t="s">
-        <v>14</v>
-      </c>
-      <c r="C137" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D137">
+        <v>5257350</v>
+      </c>
+      <c r="E137">
+        <v>5257350</v>
+      </c>
+      <c r="F137">
+        <v>5257350</v>
+      </c>
+      <c r="G137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A138">
+        <v>1017900101</v>
+      </c>
+      <c r="B138" t="s">
+        <v>14</v>
+      </c>
+      <c r="C138" t="s">
+        <v>142</v>
+      </c>
+      <c r="D138">
+        <v>20700</v>
+      </c>
+      <c r="E138">
+        <v>229050</v>
+      </c>
+      <c r="F138">
+        <v>171696</v>
+      </c>
+      <c r="G138">
+        <f t="shared" si="2"/>
+        <v>57354</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A139">
         <v>1000960005</v>
       </c>
-      <c r="B138" t="s">
-        <v>14</v>
-      </c>
-      <c r="C138" t="s">
+      <c r="B139" t="s">
+        <v>14</v>
+      </c>
+      <c r="C139" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A139">
+      <c r="D139">
+        <v>1800000</v>
+      </c>
+      <c r="E139">
+        <v>9160200</v>
+      </c>
+      <c r="F139">
+        <v>9160200</v>
+      </c>
+      <c r="G139">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A140">
         <v>3001990100</v>
       </c>
-      <c r="B139" t="s">
-        <v>14</v>
-      </c>
-      <c r="C139" t="s">
+      <c r="B140" t="s">
+        <v>14</v>
+      </c>
+      <c r="C140" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A140">
-        <v>1017900101</v>
-      </c>
-      <c r="B140" t="s">
-        <v>14</v>
-      </c>
-      <c r="C140" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D140">
+        <v>1741050</v>
+      </c>
+      <c r="E140">
+        <v>1741050</v>
+      </c>
+      <c r="F140">
+        <v>1741050</v>
+      </c>
+      <c r="G140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>1010140017</v>
       </c>
@@ -6091,8 +7951,21 @@
       <c r="C141" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D141">
+        <v>1089000</v>
+      </c>
+      <c r="E141">
+        <v>10078650</v>
+      </c>
+      <c r="F141">
+        <v>10078650</v>
+      </c>
+      <c r="G141">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>1010140041</v>
       </c>
@@ -6102,8 +7975,21 @@
       <c r="C142" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D142">
+        <v>1350000</v>
+      </c>
+      <c r="E142">
+        <v>6738300</v>
+      </c>
+      <c r="F142">
+        <v>6738300</v>
+      </c>
+      <c r="G142">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>5001840142</v>
       </c>
@@ -6113,30 +7999,69 @@
       <c r="C143" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D143">
+        <v>130500</v>
+      </c>
+      <c r="E143">
+        <v>244350</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <f t="shared" si="2"/>
+        <v>244350</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A144">
+        <v>4159770075</v>
+      </c>
+      <c r="B144" t="s">
+        <v>14</v>
+      </c>
+      <c r="C144" t="s">
+        <v>161</v>
+      </c>
+      <c r="D144">
+        <v>31050</v>
+      </c>
+      <c r="E144">
+        <v>31050</v>
+      </c>
+      <c r="F144">
+        <v>31050</v>
+      </c>
+      <c r="G144">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A145">
         <v>2023570040</v>
       </c>
-      <c r="B144" t="s">
-        <v>14</v>
-      </c>
-      <c r="C144" t="s">
+      <c r="B145" t="s">
+        <v>14</v>
+      </c>
+      <c r="C145" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A145">
-        <v>4159770075</v>
-      </c>
-      <c r="B145" t="s">
-        <v>14</v>
-      </c>
-      <c r="C145" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D145">
+        <v>4500000</v>
+      </c>
+      <c r="E145">
+        <v>34542000</v>
+      </c>
+      <c r="F145">
+        <v>34542000</v>
+      </c>
+      <c r="G145">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>3036440140</v>
       </c>
@@ -6146,8 +8071,21 @@
       <c r="C146" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D146">
+        <v>901800</v>
+      </c>
+      <c r="E146">
+        <v>5300550</v>
+      </c>
+      <c r="F146">
+        <v>901800</v>
+      </c>
+      <c r="G146">
+        <f t="shared" si="2"/>
+        <v>4398750</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>3055160033</v>
       </c>
@@ -6157,54 +8095,119 @@
       <c r="C147" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A148">
+        <v>5033300040</v>
+      </c>
+      <c r="B148" t="s">
+        <v>14</v>
+      </c>
+      <c r="C148" t="s">
+        <v>259</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A149">
         <v>2022930041</v>
       </c>
-      <c r="B148" t="s">
-        <v>14</v>
-      </c>
-      <c r="C148" t="s">
+      <c r="B149" t="s">
+        <v>14</v>
+      </c>
+      <c r="C149" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A149">
+      <c r="D149">
+        <v>14400</v>
+      </c>
+      <c r="E149">
+        <v>307350</v>
+      </c>
+      <c r="F149">
+        <v>156728</v>
+      </c>
+      <c r="G149">
+        <f t="shared" si="2"/>
+        <v>150622</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A150">
         <v>5028000036</v>
       </c>
-      <c r="B149" t="s">
-        <v>14</v>
-      </c>
-      <c r="C149" t="s">
+      <c r="B150" t="s">
+        <v>14</v>
+      </c>
+      <c r="C150" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A150">
+      <c r="D150">
+        <v>900</v>
+      </c>
+      <c r="E150">
+        <v>900</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <f t="shared" si="2"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A151">
         <v>1010140001</v>
       </c>
-      <c r="B150" t="s">
-        <v>14</v>
-      </c>
-      <c r="C150" t="s">
+      <c r="B151" t="s">
+        <v>14</v>
+      </c>
+      <c r="C151" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A151">
+      <c r="D151">
+        <v>31500000</v>
+      </c>
+      <c r="E151">
+        <v>75421800</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <f t="shared" si="2"/>
+        <v>75421800</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A152">
         <v>1017900001</v>
-      </c>
-      <c r="B151" t="s">
-        <v>14</v>
-      </c>
-      <c r="C151" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A152">
-        <v>1017900041</v>
       </c>
       <c r="B152" t="s">
         <v>14</v>
@@ -6212,19 +8215,45 @@
       <c r="C152" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D152">
+        <v>192150</v>
+      </c>
+      <c r="E152">
+        <v>286200</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <f t="shared" si="2"/>
+        <v>286200</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A153">
-        <v>5033300040</v>
+        <v>1017900041</v>
       </c>
       <c r="B153" t="s">
         <v>14</v>
       </c>
       <c r="C153" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
+        <v>142</v>
+      </c>
+      <c r="D153">
+        <v>1843200</v>
+      </c>
+      <c r="E153">
+        <v>1843200</v>
+      </c>
+      <c r="F153">
+        <v>1843200</v>
+      </c>
+      <c r="G153">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>1013730001</v>
       </c>
@@ -6234,8 +8263,21 @@
       <c r="C154" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D154">
+        <v>134506350</v>
+      </c>
+      <c r="E154">
+        <v>477973800</v>
+      </c>
+      <c r="F154">
+        <v>477973800</v>
+      </c>
+      <c r="G154">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>1017900005</v>
       </c>
@@ -6244,6 +8286,19 @@
       </c>
       <c r="C155" t="s">
         <v>142</v>
+      </c>
+      <c r="D155">
+        <v>45000</v>
+      </c>
+      <c r="E155">
+        <v>66600</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <f t="shared" si="2"/>
+        <v>66600</v>
       </c>
     </row>
   </sheetData>
@@ -6254,1436 +8309,3113 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF02D43-A578-4DFB-8450-754A6F72A4A9}">
-  <dimension ref="A1:C129"/>
+  <dimension ref="A1:G129"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>4122050012</v>
+      </c>
+      <c r="B2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D2">
+        <v>11460</v>
+      </c>
+      <c r="E2">
+        <v>26700</v>
+      </c>
+      <c r="F2">
+        <v>11560</v>
+      </c>
+      <c r="G2">
+        <f>E2-F2</f>
+        <v>15140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>4103730007</v>
+      </c>
+      <c r="B3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D3">
+        <v>8940</v>
+      </c>
+      <c r="E3">
+        <v>25380</v>
+      </c>
+      <c r="F3">
+        <v>16588</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G66" si="0">E3-F3</f>
+        <v>8792</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>4100640110</v>
+      </c>
+      <c r="B4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D4">
+        <v>9660</v>
+      </c>
+      <c r="E4">
+        <v>27840</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>27840</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>1001660027</v>
+      </c>
+      <c r="B5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" t="s">
+        <v>262</v>
+      </c>
+      <c r="D5">
+        <v>8235000</v>
+      </c>
+      <c r="E5">
+        <v>55207800</v>
+      </c>
+      <c r="F5">
+        <v>55207800</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>4100700121</v>
+      </c>
+      <c r="B6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D6">
+        <v>11460</v>
+      </c>
+      <c r="E6">
+        <v>31260</v>
+      </c>
+      <c r="F6">
+        <v>12538</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>18722</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>3046650005</v>
+      </c>
+      <c r="B7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" t="s">
+        <v>281</v>
+      </c>
+      <c r="D7">
+        <v>17220</v>
+      </c>
+      <c r="E7">
+        <v>35220</v>
+      </c>
+      <c r="F7">
+        <v>18270</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>16950</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>4102060037</v>
+      </c>
+      <c r="B8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" t="s">
+        <v>291</v>
+      </c>
+      <c r="D8">
+        <v>9000</v>
+      </c>
+      <c r="E8">
+        <v>29160</v>
+      </c>
+      <c r="F8">
+        <v>9907</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>19253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>4109660220</v>
+      </c>
+      <c r="B9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" t="s">
+        <v>305</v>
+      </c>
+      <c r="D9">
+        <v>9960</v>
+      </c>
+      <c r="E9">
+        <v>28800</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>28800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>4134850051</v>
+      </c>
+      <c r="B10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" t="s">
+        <v>351</v>
+      </c>
+      <c r="D10">
+        <v>8040</v>
+      </c>
+      <c r="E10">
+        <v>25440</v>
+      </c>
+      <c r="F10">
+        <v>7403</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>18037</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>4116990051</v>
+      </c>
+      <c r="B11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" t="s">
+        <v>320</v>
+      </c>
+      <c r="D11">
+        <v>7740</v>
+      </c>
+      <c r="E11">
+        <v>27240</v>
+      </c>
+      <c r="F11">
+        <v>12310</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>14930</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>4110410030</v>
+      </c>
+      <c r="B12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" t="s">
+        <v>310</v>
+      </c>
+      <c r="D12">
+        <v>10860</v>
+      </c>
+      <c r="E12">
+        <v>28020</v>
+      </c>
+      <c r="F12">
+        <v>19728</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>8292</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>4119790022</v>
+      </c>
+      <c r="B13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" t="s">
+        <v>327</v>
+      </c>
+      <c r="D13">
+        <v>9660</v>
+      </c>
+      <c r="E13">
+        <v>25860</v>
+      </c>
+      <c r="F13">
+        <v>8239</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>17621</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>4116100024</v>
+      </c>
+      <c r="B14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" t="s">
+        <v>318</v>
+      </c>
+      <c r="D14">
+        <v>7860</v>
+      </c>
+      <c r="E14">
+        <v>34320</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>34320</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>4117740559</v>
+      </c>
+      <c r="B15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" t="s">
+        <v>323</v>
+      </c>
+      <c r="D15">
+        <v>7380</v>
+      </c>
+      <c r="E15">
+        <v>29220</v>
+      </c>
+      <c r="F15">
+        <v>13992</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>15228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>4119920097</v>
+      </c>
+      <c r="B16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" t="s">
+        <v>286</v>
+      </c>
+      <c r="D16">
+        <v>9000</v>
+      </c>
+      <c r="E16">
+        <v>28680</v>
+      </c>
+      <c r="F16">
+        <v>9981</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>18699</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>4127730135</v>
+      </c>
+      <c r="B17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" t="s">
+        <v>338</v>
+      </c>
+      <c r="D17">
+        <v>10320</v>
+      </c>
+      <c r="E17">
+        <v>26160</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>26160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>4110380068</v>
+      </c>
+      <c r="B18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" t="s">
+        <v>281</v>
+      </c>
+      <c r="D18">
+        <v>11400</v>
+      </c>
+      <c r="E18">
+        <v>29640</v>
+      </c>
+      <c r="F18">
+        <v>25869</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>3771</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>2029620052</v>
+      </c>
+      <c r="B19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" t="s">
+        <v>271</v>
+      </c>
+      <c r="D19">
+        <v>38250</v>
+      </c>
+      <c r="E19">
+        <v>272250</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>272250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>4126680034</v>
+      </c>
+      <c r="B20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" t="s">
+        <v>336</v>
+      </c>
+      <c r="D20">
+        <v>11400</v>
+      </c>
+      <c r="E20">
+        <v>24360</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>24360</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>4103720020</v>
+      </c>
+      <c r="B21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" t="s">
+        <v>295</v>
+      </c>
+      <c r="D21">
+        <v>12840</v>
+      </c>
+      <c r="E21">
+        <v>33900</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>33900</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>4111370146</v>
+      </c>
+      <c r="B22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" t="s">
+        <v>313</v>
+      </c>
+      <c r="D22">
+        <v>12000</v>
+      </c>
+      <c r="E22">
+        <v>34020</v>
+      </c>
+      <c r="F22">
+        <v>18483</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>15537</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>4124030106</v>
+      </c>
+      <c r="B23" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" t="s">
+        <v>333</v>
+      </c>
+      <c r="D23">
+        <v>12180</v>
+      </c>
+      <c r="E23">
+        <v>24420</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>24420</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>4102670055</v>
+      </c>
+      <c r="B24" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" t="s">
+        <v>292</v>
+      </c>
+      <c r="D24">
+        <v>14340</v>
+      </c>
+      <c r="E24">
+        <v>26100</v>
+      </c>
+      <c r="F24">
+        <v>7258</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>18842</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>2029490081</v>
+      </c>
+      <c r="B25" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" t="s">
+        <v>270</v>
+      </c>
+      <c r="D25">
+        <v>27450</v>
+      </c>
+      <c r="E25">
+        <v>27450</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>27450</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>4117960007</v>
+      </c>
+      <c r="B26" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" t="s">
+        <v>325</v>
+      </c>
+      <c r="D26">
+        <v>9660</v>
+      </c>
+      <c r="E26">
+        <v>31620</v>
+      </c>
+      <c r="F26">
+        <v>15501</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>16119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>4108170044</v>
+      </c>
+      <c r="B27" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" t="s">
+        <v>298</v>
+      </c>
+      <c r="D27">
+        <v>13440</v>
+      </c>
+      <c r="E27">
+        <v>27480</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>27480</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>4121110049</v>
+      </c>
+      <c r="B28" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" t="s">
+        <v>286</v>
+      </c>
+      <c r="D28">
+        <v>10920</v>
+      </c>
+      <c r="E28">
+        <v>28620</v>
+      </c>
+      <c r="F28">
+        <v>13276</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>15344</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>4109950009</v>
+      </c>
+      <c r="B29" t="s">
+        <v>136</v>
+      </c>
+      <c r="C29" t="s">
+        <v>307</v>
+      </c>
+      <c r="D29">
+        <v>11640</v>
+      </c>
+      <c r="E29">
+        <v>25980</v>
+      </c>
+      <c r="F29">
+        <v>22346</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>3634</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>1000160220</v>
+      </c>
+      <c r="B30" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" t="s">
+        <v>161</v>
+      </c>
+      <c r="D30">
+        <v>4225500</v>
+      </c>
+      <c r="E30">
+        <v>20999250</v>
+      </c>
+      <c r="F30">
+        <v>20999250</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>2029330016</v>
+      </c>
+      <c r="B31" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31" t="s">
+        <v>269</v>
+      </c>
+      <c r="D31">
+        <v>88650</v>
+      </c>
+      <c r="E31">
+        <v>544950</v>
+      </c>
+      <c r="F31">
+        <v>381850</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>163100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>2028760031</v>
+      </c>
+      <c r="B32" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32" t="s">
+        <v>267</v>
+      </c>
+      <c r="D32">
+        <v>45000</v>
+      </c>
+      <c r="E32">
+        <v>931950</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>931950</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>2029620056</v>
+      </c>
+      <c r="B33" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" t="s">
+        <v>271</v>
+      </c>
+      <c r="D33">
+        <v>21600</v>
+      </c>
+      <c r="E33">
+        <v>21600</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>4100810019</v>
+      </c>
+      <c r="B34" t="s">
+        <v>136</v>
+      </c>
+      <c r="C34" t="s">
+        <v>288</v>
+      </c>
+      <c r="D34">
+        <v>14640</v>
+      </c>
+      <c r="E34">
+        <v>35280</v>
+      </c>
+      <c r="F34">
+        <v>8384</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>26896</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>2029490083</v>
+      </c>
+      <c r="B35" t="s">
+        <v>136</v>
+      </c>
+      <c r="C35" t="s">
+        <v>270</v>
+      </c>
+      <c r="D35">
+        <v>27450</v>
+      </c>
+      <c r="E35">
+        <v>27450</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>27450</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>2030060026</v>
+      </c>
+      <c r="B36" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" t="s">
+        <v>272</v>
+      </c>
+      <c r="D36">
+        <v>116550</v>
+      </c>
+      <c r="E36">
+        <v>1470150</v>
+      </c>
+      <c r="F36">
+        <v>874835</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>595315</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>4110290104</v>
+      </c>
+      <c r="B37" t="s">
+        <v>136</v>
+      </c>
+      <c r="C37" t="s">
+        <v>309</v>
+      </c>
+      <c r="D37">
+        <v>14880</v>
+      </c>
+      <c r="E37">
+        <v>33600</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>4108480005</v>
+      </c>
+      <c r="B38" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" t="s">
+        <v>299</v>
+      </c>
+      <c r="D38">
+        <v>11160</v>
+      </c>
+      <c r="E38">
+        <v>31080</v>
+      </c>
+      <c r="F38">
+        <v>16120</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>14960</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>2029350010</v>
+      </c>
+      <c r="B39" t="s">
+        <v>136</v>
+      </c>
+      <c r="C39" t="s">
+        <v>269</v>
+      </c>
+      <c r="D39">
+        <v>49500</v>
+      </c>
+      <c r="E39">
+        <v>379350</v>
+      </c>
+      <c r="F39">
+        <v>257025</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="0"/>
+        <v>122325</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>4113060028</v>
+      </c>
+      <c r="B40" t="s">
+        <v>136</v>
+      </c>
+      <c r="C40" t="s">
+        <v>317</v>
+      </c>
+      <c r="D40">
+        <v>11820</v>
+      </c>
+      <c r="E40">
+        <v>30300</v>
+      </c>
+      <c r="F40">
+        <v>29578</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>722</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>4116140043</v>
+      </c>
+      <c r="B41" t="s">
+        <v>136</v>
+      </c>
+      <c r="C41" t="s">
+        <v>319</v>
+      </c>
+      <c r="D41">
+        <v>8640</v>
+      </c>
+      <c r="E41">
+        <v>33420</v>
+      </c>
+      <c r="F41">
+        <v>14165</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="0"/>
+        <v>19255</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>4117810267</v>
+      </c>
+      <c r="B42" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" t="s">
+        <v>286</v>
+      </c>
+      <c r="D42">
+        <v>8280</v>
+      </c>
+      <c r="E42">
+        <v>26760</v>
+      </c>
+      <c r="F42">
+        <v>11920</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="0"/>
+        <v>14840</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>4117550005</v>
+      </c>
+      <c r="B43" t="s">
+        <v>136</v>
+      </c>
+      <c r="C43" t="s">
+        <v>321</v>
+      </c>
+      <c r="D43">
+        <v>9840</v>
+      </c>
+      <c r="E43">
+        <v>32940</v>
+      </c>
+      <c r="F43">
+        <v>16581</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="0"/>
+        <v>16359</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>4120420009</v>
+      </c>
+      <c r="B44" t="s">
+        <v>136</v>
+      </c>
+      <c r="C44" t="s">
+        <v>328</v>
+      </c>
+      <c r="D44">
+        <v>8160</v>
+      </c>
+      <c r="E44">
+        <v>26460</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="0"/>
+        <v>26460</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>1004380013</v>
+      </c>
+      <c r="B45" t="s">
+        <v>136</v>
+      </c>
+      <c r="C45" t="s">
+        <v>263</v>
+      </c>
+      <c r="D45">
+        <v>180000</v>
+      </c>
+      <c r="E45">
+        <v>372150</v>
+      </c>
+      <c r="F45">
+        <v>372150</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>4126220029</v>
+      </c>
+      <c r="B46" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" t="s">
+        <v>335</v>
+      </c>
+      <c r="D46">
+        <v>11160</v>
+      </c>
+      <c r="E46">
+        <v>31620</v>
+      </c>
+      <c r="F46">
+        <v>17284</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="0"/>
+        <v>14336</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>2030330053</v>
+      </c>
+      <c r="B47" t="s">
+        <v>136</v>
+      </c>
+      <c r="C47" t="s">
+        <v>273</v>
+      </c>
+      <c r="D47">
+        <v>2565000</v>
+      </c>
+      <c r="E47">
+        <v>37136700</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="0"/>
+        <v>37136700</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>4133590025</v>
+      </c>
+      <c r="B48" t="s">
+        <v>136</v>
+      </c>
+      <c r="C48" t="s">
+        <v>350</v>
+      </c>
+      <c r="D48">
+        <v>7740</v>
+      </c>
+      <c r="E48">
+        <v>33840</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="0"/>
+        <v>33840</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>1004380022</v>
+      </c>
+      <c r="B49" t="s">
+        <v>136</v>
+      </c>
+      <c r="C49" t="s">
+        <v>263</v>
+      </c>
+      <c r="D49">
+        <v>135000</v>
+      </c>
+      <c r="E49">
+        <v>314550</v>
+      </c>
+      <c r="F49">
+        <v>314550</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>4094990031</v>
+      </c>
+      <c r="B50" t="s">
+        <v>136</v>
+      </c>
+      <c r="C50" t="s">
+        <v>281</v>
+      </c>
+      <c r="D50">
+        <v>13500</v>
+      </c>
+      <c r="E50">
+        <v>13500</v>
+      </c>
+      <c r="F50">
+        <v>13500</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>3045930037</v>
+      </c>
+      <c r="B51" t="s">
+        <v>136</v>
+      </c>
+      <c r="C51" t="s">
+        <v>279</v>
+      </c>
+      <c r="D51">
+        <v>14520</v>
+      </c>
+      <c r="E51">
+        <v>30480</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="0"/>
+        <v>30480</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>2030060024</v>
+      </c>
+      <c r="B52" t="s">
+        <v>136</v>
+      </c>
+      <c r="C52" t="s">
+        <v>272</v>
+      </c>
+      <c r="D52">
+        <v>87750</v>
+      </c>
+      <c r="E52">
+        <v>499500</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="0"/>
+        <v>499500</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>4110040121</v>
+      </c>
+      <c r="B53" t="s">
+        <v>136</v>
+      </c>
+      <c r="C53" t="s">
+        <v>308</v>
+      </c>
+      <c r="D53">
+        <v>14940</v>
+      </c>
+      <c r="E53">
+        <v>34320</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="0"/>
+        <v>34320</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>2026000170</v>
+      </c>
+      <c r="B54" t="s">
+        <v>136</v>
+      </c>
+      <c r="C54" t="s">
+        <v>266</v>
+      </c>
+      <c r="D54">
+        <v>66600</v>
+      </c>
+      <c r="E54">
+        <v>94050</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="0"/>
+        <v>94050</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>2029350012</v>
+      </c>
+      <c r="B55" t="s">
+        <v>136</v>
+      </c>
+      <c r="C55" t="s">
+        <v>269</v>
+      </c>
+      <c r="D55">
+        <v>53550</v>
+      </c>
+      <c r="E55">
+        <v>378000</v>
+      </c>
+      <c r="F55">
+        <v>255675</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="0"/>
+        <v>122325</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>1018300011</v>
+      </c>
+      <c r="B56" t="s">
+        <v>136</v>
+      </c>
+      <c r="C56" t="s">
+        <v>265</v>
+      </c>
+      <c r="D56">
+        <v>85050</v>
+      </c>
+      <c r="E56">
+        <v>413100</v>
+      </c>
+      <c r="F56">
+        <v>413100</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>4131010032</v>
+      </c>
+      <c r="B57" t="s">
+        <v>136</v>
+      </c>
+      <c r="C57" t="s">
+        <v>346</v>
+      </c>
+      <c r="D57">
+        <v>13290</v>
+      </c>
+      <c r="E57">
+        <v>30960</v>
+      </c>
+      <c r="F57">
+        <v>17670</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="0"/>
+        <v>13290</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>4111640028</v>
+      </c>
+      <c r="B58" t="s">
+        <v>136</v>
+      </c>
+      <c r="C58" t="s">
+        <v>315</v>
+      </c>
+      <c r="D58">
+        <v>13740</v>
+      </c>
+      <c r="E58">
+        <v>32820</v>
+      </c>
+      <c r="F58">
+        <v>16855</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="0"/>
+        <v>15965</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>2028780023</v>
+      </c>
+      <c r="B59" t="s">
+        <v>136</v>
+      </c>
+      <c r="C59" t="s">
+        <v>267</v>
+      </c>
+      <c r="D59">
+        <v>45000</v>
+      </c>
+      <c r="E59">
+        <v>995400</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="0"/>
+        <v>995400</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>4109640134</v>
+      </c>
+      <c r="B60" t="s">
+        <v>136</v>
+      </c>
+      <c r="C60" t="s">
+        <v>304</v>
+      </c>
+      <c r="D60">
+        <v>8220</v>
+      </c>
+      <c r="E60">
+        <v>28260</v>
+      </c>
+      <c r="F60">
+        <v>17583</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="0"/>
+        <v>10677</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>2029620060</v>
+      </c>
+      <c r="B61" t="s">
+        <v>136</v>
+      </c>
+      <c r="C61" t="s">
+        <v>271</v>
+      </c>
+      <c r="D61">
+        <v>13500</v>
+      </c>
+      <c r="E61">
+        <v>428220</v>
+      </c>
+      <c r="F61">
+        <v>138948</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="0"/>
+        <v>289272</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <v>4103180017</v>
+      </c>
+      <c r="B62" t="s">
+        <v>136</v>
+      </c>
+      <c r="C62" t="s">
+        <v>294</v>
+      </c>
+      <c r="D62">
+        <v>11760</v>
+      </c>
+      <c r="E62">
+        <v>30300</v>
+      </c>
+      <c r="F62">
+        <v>6939</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="0"/>
+        <v>23361</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <v>2029330013</v>
+      </c>
+      <c r="B63" t="s">
+        <v>136</v>
+      </c>
+      <c r="C63" t="s">
+        <v>269</v>
+      </c>
+      <c r="D63">
+        <v>36000</v>
+      </c>
+      <c r="E63">
+        <v>421650</v>
+      </c>
+      <c r="F63">
+        <v>258550</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="0"/>
+        <v>163100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A64">
+        <v>2029490075</v>
+      </c>
+      <c r="B64" t="s">
+        <v>136</v>
+      </c>
+      <c r="C64" t="s">
+        <v>270</v>
+      </c>
+      <c r="D64">
+        <v>134100</v>
+      </c>
+      <c r="E64">
+        <v>1419750</v>
+      </c>
+      <c r="F64">
+        <v>1058105</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="0"/>
+        <v>361645</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A65">
+        <v>2031820004</v>
+      </c>
+      <c r="B65" t="s">
+        <v>136</v>
+      </c>
+      <c r="C65" t="s">
+        <v>274</v>
+      </c>
+      <c r="D65">
+        <v>37350</v>
+      </c>
+      <c r="E65">
+        <v>851850</v>
+      </c>
+      <c r="F65">
+        <v>851850</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A66">
+        <v>4129770034</v>
+      </c>
+      <c r="B66" t="s">
+        <v>136</v>
+      </c>
+      <c r="C66" t="s">
+        <v>344</v>
+      </c>
+      <c r="D66">
+        <v>10680</v>
+      </c>
+      <c r="E66">
+        <v>30240</v>
+      </c>
+      <c r="F66">
+        <v>19560</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="0"/>
+        <v>10680</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A67">
+        <v>4098010002</v>
+      </c>
+      <c r="B67" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67" t="s">
+        <v>286</v>
+      </c>
+      <c r="D67">
+        <v>13080</v>
+      </c>
+      <c r="E67">
+        <v>33420</v>
+      </c>
+      <c r="F67">
+        <v>3481</v>
+      </c>
+      <c r="G67">
+        <f t="shared" ref="G67:G129" si="1">E67-F67</f>
+        <v>29939</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <v>4127360038</v>
+      </c>
+      <c r="B68" t="s">
+        <v>136</v>
+      </c>
+      <c r="C68" t="s">
+        <v>337</v>
+      </c>
+      <c r="D68">
+        <v>10200</v>
+      </c>
+      <c r="E68">
+        <v>31320</v>
+      </c>
+      <c r="F68">
+        <v>18949</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="1"/>
+        <v>12371</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A69">
+        <v>2029620058</v>
+      </c>
+      <c r="B69" t="s">
+        <v>136</v>
+      </c>
+      <c r="C69" t="s">
+        <v>271</v>
+      </c>
+      <c r="D69">
+        <v>21150</v>
+      </c>
+      <c r="E69">
+        <v>21150</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="1"/>
+        <v>21150</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A70">
+        <v>4119960131</v>
+      </c>
+      <c r="B70" t="s">
+        <v>136</v>
+      </c>
+      <c r="C70" t="s">
+        <v>286</v>
+      </c>
+      <c r="D70">
+        <v>11700</v>
+      </c>
+      <c r="E70">
+        <v>29520</v>
+      </c>
+      <c r="F70">
+        <v>11462</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="1"/>
+        <v>18058</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A71">
+        <v>4121160022</v>
+      </c>
+      <c r="B71" t="s">
+        <v>136</v>
+      </c>
+      <c r="C71" t="s">
+        <v>331</v>
+      </c>
+      <c r="D71">
+        <v>9600</v>
+      </c>
+      <c r="E71">
+        <v>28260</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="1"/>
+        <v>28260</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A72">
+        <v>3045950121</v>
+      </c>
+      <c r="B72" t="s">
+        <v>136</v>
+      </c>
+      <c r="C72" t="s">
+        <v>280</v>
+      </c>
+      <c r="D72">
+        <v>14460</v>
+      </c>
+      <c r="E72">
+        <v>32700</v>
+      </c>
+      <c r="F72">
+        <v>21751</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="1"/>
+        <v>10949</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A73">
+        <v>4129340127</v>
+      </c>
+      <c r="B73" t="s">
+        <v>136</v>
+      </c>
+      <c r="C73" t="s">
+        <v>340</v>
+      </c>
+      <c r="D73">
+        <v>13140</v>
+      </c>
+      <c r="E73">
+        <v>28980</v>
+      </c>
+      <c r="F73">
+        <v>14392</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="1"/>
+        <v>14588</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A74">
+        <v>4129340129</v>
+      </c>
+      <c r="B74" t="s">
+        <v>136</v>
+      </c>
+      <c r="C74" t="s">
+        <v>341</v>
+      </c>
+      <c r="D74">
+        <v>13320</v>
+      </c>
+      <c r="E74">
+        <v>31920</v>
+      </c>
+      <c r="F74">
+        <v>16006</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="1"/>
+        <v>15914</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A75">
+        <v>3048260012</v>
+      </c>
+      <c r="B75" t="s">
+        <v>136</v>
+      </c>
+      <c r="C75" t="s">
+        <v>283</v>
+      </c>
+      <c r="D75">
+        <v>19200</v>
+      </c>
+      <c r="E75">
+        <v>54420</v>
+      </c>
+      <c r="F75">
+        <v>37447</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="1"/>
+        <v>16973</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A76">
+        <v>4105450087</v>
+      </c>
+      <c r="B76" t="s">
+        <v>136</v>
+      </c>
+      <c r="C76" t="s">
+        <v>297</v>
+      </c>
+      <c r="D76">
+        <v>13020</v>
+      </c>
+      <c r="E76">
+        <v>36180</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="1"/>
+        <v>36180</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A77">
+        <v>1004380021</v>
+      </c>
+      <c r="B77" t="s">
+        <v>136</v>
+      </c>
+      <c r="C77" t="s">
+        <v>263</v>
+      </c>
+      <c r="D77">
+        <v>135000</v>
+      </c>
+      <c r="E77">
+        <v>429300</v>
+      </c>
+      <c r="F77">
+        <v>429300</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A78">
+        <v>4099810033</v>
+      </c>
+      <c r="B78" t="s">
+        <v>136</v>
+      </c>
+      <c r="C78" t="s">
+        <v>281</v>
+      </c>
+      <c r="D78">
+        <v>9780</v>
+      </c>
+      <c r="E78">
+        <v>30780</v>
+      </c>
+      <c r="F78">
+        <v>26203</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="1"/>
+        <v>4577</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A79">
+        <v>5012270037</v>
+      </c>
+      <c r="B79" t="s">
+        <v>136</v>
+      </c>
+      <c r="C79" t="s">
+        <v>353</v>
+      </c>
+      <c r="D79">
+        <v>5640</v>
+      </c>
+      <c r="E79">
+        <v>21780</v>
+      </c>
+      <c r="F79">
+        <v>16140</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="1"/>
+        <v>5640</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A80">
+        <v>4111410088</v>
+      </c>
+      <c r="B80" t="s">
+        <v>136</v>
+      </c>
+      <c r="C80" t="s">
+        <v>314</v>
+      </c>
+      <c r="D80">
+        <v>11800</v>
+      </c>
+      <c r="E80">
+        <v>29640</v>
+      </c>
+      <c r="F80">
+        <v>17840</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="1"/>
+        <v>11800</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A81">
+        <v>4131920225</v>
+      </c>
+      <c r="B81" t="s">
+        <v>136</v>
+      </c>
+      <c r="C81" t="s">
+        <v>349</v>
+      </c>
+      <c r="D81">
+        <v>12960</v>
+      </c>
+      <c r="E81">
+        <v>31200</v>
+      </c>
+      <c r="F81">
+        <v>30547</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="1"/>
+        <v>653</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A82">
+        <v>1015080126</v>
+      </c>
+      <c r="B82" t="s">
+        <v>136</v>
+      </c>
+      <c r="C82" t="s">
+        <v>264</v>
+      </c>
+      <c r="D82">
+        <v>66960</v>
+      </c>
+      <c r="E82">
+        <v>621600</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="1"/>
+        <v>621600</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A83">
+        <v>2029620054</v>
+      </c>
+      <c r="B83" t="s">
+        <v>136</v>
+      </c>
+      <c r="C83" t="s">
+        <v>271</v>
+      </c>
+      <c r="D83">
+        <v>48150</v>
+      </c>
+      <c r="E83">
+        <v>304200</v>
+      </c>
+      <c r="F83">
+        <v>173725</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="1"/>
+        <v>130475</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A84">
+        <v>2026000131</v>
+      </c>
+      <c r="B84" t="s">
+        <v>136</v>
+      </c>
+      <c r="C84" t="s">
+        <v>266</v>
+      </c>
+      <c r="D84">
+        <v>139950</v>
+      </c>
+      <c r="E84">
+        <v>3375900</v>
+      </c>
+      <c r="F84">
+        <v>2137747</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="1"/>
+        <v>1238153</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A85">
+        <v>4131280004</v>
+      </c>
+      <c r="B85" t="s">
+        <v>136</v>
+      </c>
+      <c r="C85" t="s">
+        <v>348</v>
+      </c>
+      <c r="D85">
+        <v>9120</v>
+      </c>
+      <c r="E85">
+        <v>22680</v>
+      </c>
+      <c r="F85">
+        <v>8995</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="1"/>
+        <v>13685</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A86">
+        <v>4132850057</v>
+      </c>
+      <c r="B86" t="s">
+        <v>136</v>
+      </c>
+      <c r="C86" t="s">
+        <v>281</v>
+      </c>
+      <c r="D86">
+        <v>15000</v>
+      </c>
+      <c r="E86">
+        <v>15000</v>
+      </c>
+      <c r="F86">
+        <v>15000</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A87">
+        <v>4121060024</v>
+      </c>
+      <c r="B87" t="s">
+        <v>136</v>
+      </c>
+      <c r="C87" t="s">
+        <v>286</v>
+      </c>
+      <c r="D87">
+        <v>8700</v>
+      </c>
+      <c r="E87">
+        <v>26520</v>
+      </c>
+      <c r="F87">
+        <v>10578</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="1"/>
+        <v>15942</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A88">
+        <v>2029330010</v>
+      </c>
+      <c r="B88" t="s">
+        <v>136</v>
+      </c>
+      <c r="C88" t="s">
+        <v>269</v>
+      </c>
+      <c r="D88">
+        <v>128250</v>
+      </c>
+      <c r="E88">
+        <v>128250</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="1"/>
+        <v>128250</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A89">
+        <v>4122190048</v>
+      </c>
+      <c r="B89" t="s">
+        <v>136</v>
+      </c>
+      <c r="C89" t="s">
+        <v>332</v>
+      </c>
+      <c r="D89">
+        <v>12960</v>
+      </c>
+      <c r="E89">
+        <v>32520</v>
+      </c>
+      <c r="F89">
+        <v>19340</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="1"/>
+        <v>13180</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A90">
+        <v>4109510144</v>
+      </c>
+      <c r="B90" t="s">
+        <v>136</v>
+      </c>
+      <c r="C90" t="s">
+        <v>303</v>
+      </c>
+      <c r="D90">
+        <v>10140</v>
+      </c>
+      <c r="E90">
+        <v>31020</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="1"/>
+        <v>31020</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A91">
+        <v>4117930074</v>
+      </c>
+      <c r="B91" t="s">
+        <v>136</v>
+      </c>
+      <c r="C91" t="s">
+        <v>324</v>
+      </c>
+      <c r="D91">
+        <v>9240</v>
+      </c>
+      <c r="E91">
+        <v>29940</v>
+      </c>
+      <c r="F91">
+        <v>15606</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="1"/>
+        <v>14334</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A92">
+        <v>2028820216</v>
+      </c>
+      <c r="B92" t="s">
+        <v>136</v>
+      </c>
+      <c r="C92" t="s">
+        <v>268</v>
+      </c>
+      <c r="D92">
+        <v>2214450</v>
+      </c>
+      <c r="E92">
+        <v>7813350</v>
+      </c>
+      <c r="F92">
+        <v>7813350</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A93">
+        <v>3043750001</v>
+      </c>
+      <c r="B93" t="s">
+        <v>136</v>
+      </c>
+      <c r="C93" t="s">
+        <v>278</v>
+      </c>
+      <c r="D93">
+        <v>2281500</v>
+      </c>
+      <c r="E93">
+        <v>14071500</v>
+      </c>
+      <c r="F93">
+        <v>14071500</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A94">
+        <v>3020590001</v>
+      </c>
+      <c r="B94" t="s">
+        <v>136</v>
+      </c>
+      <c r="C94" t="s">
+        <v>277</v>
+      </c>
+      <c r="D94">
+        <v>8910000</v>
+      </c>
+      <c r="E94">
+        <v>102886650</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="1"/>
+        <v>102886650</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A95">
+        <v>4111340022</v>
+      </c>
+      <c r="B95" t="s">
+        <v>136</v>
+      </c>
+      <c r="C95" t="s">
+        <v>312</v>
+      </c>
+      <c r="D95">
+        <v>10500</v>
+      </c>
+      <c r="E95">
+        <v>30540</v>
+      </c>
+      <c r="F95">
+        <v>20571</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="1"/>
+        <v>9969</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A96">
+        <v>4111640071</v>
+      </c>
+      <c r="B96" t="s">
+        <v>136</v>
+      </c>
+      <c r="C96" t="s">
+        <v>316</v>
+      </c>
+      <c r="D96">
+        <v>11760</v>
+      </c>
+      <c r="E96">
+        <v>29220</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="1"/>
+        <v>29220</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A97">
+        <v>4131160020</v>
+      </c>
+      <c r="B97" t="s">
+        <v>136</v>
+      </c>
+      <c r="C97" t="s">
+        <v>347</v>
+      </c>
+      <c r="D97">
+        <v>10380</v>
+      </c>
+      <c r="E97">
+        <v>22560</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="1"/>
+        <v>22560</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A98">
+        <v>4114790029</v>
+      </c>
+      <c r="B98" t="s">
+        <v>136</v>
+      </c>
+      <c r="C98" t="s">
+        <v>286</v>
+      </c>
+      <c r="D98">
+        <v>10020</v>
+      </c>
+      <c r="E98">
+        <v>35520</v>
+      </c>
+      <c r="F98">
+        <v>16974</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="1"/>
+        <v>18546</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A99">
+        <v>2029330019</v>
+      </c>
+      <c r="B99" t="s">
+        <v>136</v>
+      </c>
+      <c r="C99" t="s">
+        <v>269</v>
+      </c>
+      <c r="D99">
+        <v>109800</v>
+      </c>
+      <c r="E99">
+        <v>109800</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="1"/>
+        <v>109800</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A100">
+        <v>4109730016</v>
+      </c>
+      <c r="B100" t="s">
+        <v>136</v>
+      </c>
+      <c r="C100" t="s">
+        <v>306</v>
+      </c>
+      <c r="D100">
+        <v>11100</v>
+      </c>
+      <c r="E100">
+        <v>31200</v>
+      </c>
+      <c r="F100">
+        <v>11147</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="1"/>
+        <v>20053</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A101">
+        <v>2029620048</v>
+      </c>
+      <c r="B101" t="s">
+        <v>136</v>
+      </c>
+      <c r="C101" t="s">
+        <v>271</v>
+      </c>
+      <c r="D101">
+        <v>27450</v>
+      </c>
+      <c r="E101">
+        <v>27450</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="1"/>
+        <v>27450</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A102">
+        <v>4103660143</v>
+      </c>
+      <c r="B102" t="s">
+        <v>136</v>
+      </c>
+      <c r="C102" t="s">
+        <v>286</v>
+      </c>
+      <c r="D102">
+        <v>10140</v>
+      </c>
+      <c r="E102">
+        <v>24540</v>
+      </c>
+      <c r="F102">
+        <v>2963</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="1"/>
+        <v>21577</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A103">
+        <v>4111310006</v>
+      </c>
+      <c r="B103" t="s">
+        <v>136</v>
+      </c>
+      <c r="C103" t="s">
+        <v>286</v>
+      </c>
+      <c r="D103">
+        <v>11280</v>
+      </c>
+      <c r="E103">
+        <v>35640</v>
+      </c>
+      <c r="F103">
+        <v>3273</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="1"/>
+        <v>32367</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A104">
+        <v>4130450028</v>
+      </c>
+      <c r="B104" t="s">
+        <v>136</v>
+      </c>
+      <c r="C104" t="s">
+        <v>345</v>
+      </c>
+      <c r="D104">
+        <v>15960</v>
+      </c>
+      <c r="E104">
+        <v>41100</v>
+      </c>
+      <c r="F104">
+        <v>34079</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="1"/>
+        <v>7021</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A105">
+        <v>3048250071</v>
+      </c>
+      <c r="B105" t="s">
+        <v>136</v>
+      </c>
+      <c r="C105" t="s">
+        <v>282</v>
+      </c>
+      <c r="D105">
+        <v>14400</v>
+      </c>
+      <c r="E105">
+        <v>34080</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="1"/>
+        <v>34080</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A106">
+        <v>4109180046</v>
+      </c>
+      <c r="B106" t="s">
+        <v>136</v>
+      </c>
+      <c r="C106" t="s">
+        <v>281</v>
+      </c>
+      <c r="D106">
+        <v>10920</v>
+      </c>
+      <c r="E106">
+        <v>17580</v>
+      </c>
+      <c r="F106">
+        <v>17210</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="1"/>
+        <v>370</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A107">
+        <v>4119750013</v>
+      </c>
+      <c r="B107" t="s">
+        <v>136</v>
+      </c>
+      <c r="C107" t="s">
+        <v>326</v>
+      </c>
+      <c r="D107">
+        <v>10560</v>
+      </c>
+      <c r="E107">
+        <v>27420</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="1"/>
+        <v>27420</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A108">
+        <v>3014460023</v>
+      </c>
+      <c r="B108" t="s">
+        <v>136</v>
+      </c>
+      <c r="C108" t="s">
+        <v>276</v>
+      </c>
+      <c r="D108">
+        <v>22920</v>
+      </c>
+      <c r="E108">
+        <v>56040</v>
+      </c>
+      <c r="F108">
+        <v>7214</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="1"/>
+        <v>48826</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A109">
+        <v>4129310082</v>
+      </c>
+      <c r="B109" t="s">
+        <v>136</v>
+      </c>
+      <c r="C109" t="s">
+        <v>339</v>
+      </c>
+      <c r="D109">
+        <v>12000</v>
+      </c>
+      <c r="E109">
+        <v>32100</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="1"/>
+        <v>32100</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A110">
+        <v>4101910021</v>
+      </c>
+      <c r="B110" t="s">
+        <v>136</v>
+      </c>
+      <c r="C110" t="s">
+        <v>289</v>
+      </c>
+      <c r="D110">
+        <v>10680</v>
+      </c>
+      <c r="E110">
+        <v>26640</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="1"/>
+        <v>26640</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A111">
+        <v>4117750206</v>
+      </c>
+      <c r="B111" t="s">
+        <v>136</v>
+      </c>
+      <c r="C111" t="s">
+        <v>286</v>
+      </c>
+      <c r="D111">
+        <v>7680</v>
+      </c>
+      <c r="E111">
+        <v>25920</v>
+      </c>
+      <c r="F111">
+        <v>12606</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="1"/>
+        <v>13314</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A112">
+        <v>4021590002</v>
+      </c>
+      <c r="B112" t="s">
+        <v>136</v>
+      </c>
+      <c r="C112" t="s">
+        <v>285</v>
+      </c>
+      <c r="D112">
+        <v>5030100</v>
+      </c>
+      <c r="E112">
+        <v>16523100</v>
+      </c>
+      <c r="F112">
+        <v>16523100</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A113">
+        <v>4120500042</v>
+      </c>
+      <c r="B113" t="s">
+        <v>136</v>
+      </c>
+      <c r="C113" t="s">
+        <v>329</v>
+      </c>
+      <c r="D113">
+        <v>7920</v>
+      </c>
+      <c r="E113">
+        <v>24900</v>
+      </c>
+      <c r="F113">
+        <v>17556</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="1"/>
+        <v>7344</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A114">
+        <v>4108590046</v>
+      </c>
+      <c r="B114" t="s">
+        <v>136</v>
+      </c>
+      <c r="C114" t="s">
+        <v>300</v>
+      </c>
+      <c r="D114">
+        <v>11820</v>
+      </c>
+      <c r="E114">
+        <v>30660</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="1"/>
+        <v>30660</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A115">
+        <v>4109190038</v>
+      </c>
+      <c r="B115" t="s">
+        <v>136</v>
+      </c>
+      <c r="C115" t="s">
+        <v>301</v>
+      </c>
+      <c r="D115">
+        <v>12360</v>
+      </c>
+      <c r="E115">
+        <v>35640</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="1"/>
+        <v>35640</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A116">
+        <v>4111260009</v>
+      </c>
+      <c r="B116" t="s">
+        <v>136</v>
+      </c>
+      <c r="C116" t="s">
+        <v>311</v>
+      </c>
+      <c r="D116">
+        <v>12720</v>
+      </c>
+      <c r="E116">
+        <v>29040</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="1"/>
+        <v>29040</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A117">
+        <v>4109510118</v>
+      </c>
+      <c r="B117" t="s">
+        <v>136</v>
+      </c>
+      <c r="C117" t="s">
+        <v>302</v>
+      </c>
+      <c r="D117">
+        <v>10500</v>
+      </c>
+      <c r="E117">
+        <v>27240</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="1"/>
+        <v>27240</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A118">
+        <v>4126160031</v>
+      </c>
+      <c r="B118" t="s">
+        <v>136</v>
+      </c>
+      <c r="C118" t="s">
+        <v>334</v>
+      </c>
+      <c r="D118">
+        <v>12060</v>
+      </c>
+      <c r="E118">
+        <v>33000</v>
+      </c>
+      <c r="F118">
+        <v>28041</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="1"/>
+        <v>4959</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A119">
+        <v>4129340175</v>
+      </c>
+      <c r="B119" t="s">
+        <v>136</v>
+      </c>
+      <c r="C119" t="s">
+        <v>342</v>
+      </c>
+      <c r="D119">
+        <v>11940</v>
+      </c>
+      <c r="E119">
+        <v>32100</v>
+      </c>
+      <c r="F119">
+        <v>32100</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A120">
+        <v>4102710138</v>
+      </c>
+      <c r="B120" t="s">
+        <v>136</v>
+      </c>
+      <c r="C120" t="s">
+        <v>293</v>
+      </c>
+      <c r="D120">
+        <v>9720</v>
+      </c>
+      <c r="E120">
+        <v>28140</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="1"/>
+        <v>28140</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A121">
+        <v>4120650168</v>
+      </c>
+      <c r="B121" t="s">
+        <v>136</v>
+      </c>
+      <c r="C121" t="s">
+        <v>330</v>
+      </c>
+      <c r="D121">
+        <v>10680</v>
+      </c>
+      <c r="E121">
+        <v>29040</v>
+      </c>
+      <c r="F121">
+        <v>1500</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="1"/>
+        <v>27540</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A122">
+        <v>4117740550</v>
+      </c>
+      <c r="B122" t="s">
+        <v>136</v>
+      </c>
+      <c r="C122" t="s">
+        <v>322</v>
+      </c>
+      <c r="D122">
+        <v>7380</v>
+      </c>
+      <c r="E122">
+        <v>24060</v>
+      </c>
+      <c r="F122">
+        <v>12978</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="1"/>
+        <v>11082</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A123">
+        <v>4129610047</v>
+      </c>
+      <c r="B123" t="s">
+        <v>136</v>
+      </c>
+      <c r="C123" t="s">
+        <v>343</v>
+      </c>
+      <c r="D123">
+        <v>9360</v>
+      </c>
+      <c r="E123">
+        <v>29640</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="1"/>
+        <v>29640</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A124">
+        <v>1001420050</v>
+      </c>
+      <c r="B124" t="s">
+        <v>136</v>
+      </c>
+      <c r="C124" t="s">
         <v>261</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" s="15">
-        <v>1000160220</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="15">
-        <v>1001420050</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="15">
-        <v>1001660027</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="15">
-        <v>1004380013</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="15">
-        <v>1004380021</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="15">
-        <v>1004380022</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="15">
-        <v>1015080126</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="15">
-        <v>1018300011</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" s="15">
-        <v>2026000131</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C10" s="15" t="s">
+      <c r="D124">
+        <v>30231450</v>
+      </c>
+      <c r="E124">
+        <v>113571450</v>
+      </c>
+      <c r="F124">
+        <v>113571450</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A125">
+        <v>3013360032</v>
+      </c>
+      <c r="B125" t="s">
+        <v>136</v>
+      </c>
+      <c r="C125" t="s">
+        <v>275</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A126">
+        <v>4158900054</v>
+      </c>
+      <c r="B126" t="s">
+        <v>136</v>
+      </c>
+      <c r="C126" t="s">
+        <v>352</v>
+      </c>
+      <c r="D126">
+        <v>33750</v>
+      </c>
+      <c r="E126">
+        <v>182250</v>
+      </c>
+      <c r="F126">
+        <v>182250</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A127">
+        <v>3048330001</v>
+      </c>
+      <c r="B127" t="s">
+        <v>136</v>
+      </c>
+      <c r="C127" t="s">
+        <v>284</v>
+      </c>
+      <c r="D127">
+        <v>5531850</v>
+      </c>
+      <c r="E127">
+        <v>28120500</v>
+      </c>
+      <c r="F127">
+        <v>28120500</v>
+      </c>
+      <c r="G127">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A128">
+        <v>4101950004</v>
+      </c>
+      <c r="B128" t="s">
+        <v>136</v>
+      </c>
+      <c r="C128" t="s">
+        <v>290</v>
+      </c>
+      <c r="D128">
+        <v>10560</v>
+      </c>
+      <c r="E128">
+        <v>29220</v>
+      </c>
+      <c r="F128">
+        <v>11059</v>
+      </c>
+      <c r="G128">
+        <f t="shared" si="1"/>
+        <v>18161</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A129">
+        <v>2029350008</v>
+      </c>
+      <c r="B129" t="s">
+        <v>136</v>
+      </c>
+      <c r="C129" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" s="15">
-        <v>2026000170</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" s="15">
-        <v>2028760031</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13" s="15">
-        <v>2028780023</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14" s="15">
-        <v>2028820216</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A15" s="15">
-        <v>2029330010</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A16" s="15">
-        <v>2029330013</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17" s="15">
-        <v>2029330016</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" s="15">
-        <v>2029330019</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A19" s="15">
-        <v>2029350008</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A20" s="15">
-        <v>2029350010</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A21" s="15">
-        <v>2029350012</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A22" s="15">
-        <v>2029490075</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A23" s="15">
-        <v>2029490081</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A24" s="15">
-        <v>2029490083</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A25" s="15">
-        <v>2029620048</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A26" s="15">
-        <v>2029620052</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A27" s="15">
-        <v>2029620054</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A28" s="15">
-        <v>2029620056</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A29" s="15">
-        <v>2029620058</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A30" s="15">
-        <v>2029620060</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A31" s="15">
-        <v>2030060024</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A32" s="15">
-        <v>2030060026</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A33" s="15">
-        <v>2030330053</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A34" s="15">
-        <v>2031820004</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A35" s="15">
-        <v>3013360032</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A36" s="15">
-        <v>3014460023</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A37" s="15">
-        <v>3020590001</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A38" s="15">
-        <v>3043750001</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A39" s="15">
-        <v>3045930037</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A40" s="15">
-        <v>3045950121</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A41" s="15">
-        <v>3046650005</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A42" s="15">
-        <v>3048250071</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A43" s="15">
-        <v>3048260012</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A44" s="15">
-        <v>3048330001</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A45" s="15">
-        <v>4021590002</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A46" s="15">
-        <v>4094990031</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A47" s="15">
-        <v>4098010002</v>
-      </c>
-      <c r="B47" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A48" s="15">
-        <v>4099810033</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A49" s="15">
-        <v>4100640110</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A50" s="15">
-        <v>4100700121</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A51" s="15">
-        <v>4100810019</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A52" s="15">
-        <v>4101910021</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A53" s="15">
-        <v>4101950004</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A54" s="15">
-        <v>4102060037</v>
-      </c>
-      <c r="B54" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A55" s="15">
-        <v>4102670055</v>
-      </c>
-      <c r="B55" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C55" s="15" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A56" s="15">
-        <v>4102710138</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C56" s="15" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A57" s="15">
-        <v>4103180017</v>
-      </c>
-      <c r="B57" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A58" s="15">
-        <v>4103660143</v>
-      </c>
-      <c r="B58" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A59" s="15">
-        <v>4103720020</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C59" s="15" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A60" s="15">
-        <v>4103730007</v>
-      </c>
-      <c r="B60" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C60" s="15" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A61" s="15">
-        <v>4105450087</v>
-      </c>
-      <c r="B61" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C61" s="15" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A62" s="15">
-        <v>4108170044</v>
-      </c>
-      <c r="B62" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C62" s="15" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A63" s="15">
-        <v>4108480005</v>
-      </c>
-      <c r="B63" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C63" s="15" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A64" s="15">
-        <v>4108590046</v>
-      </c>
-      <c r="B64" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C64" s="15" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A65" s="15">
-        <v>4109180046</v>
-      </c>
-      <c r="B65" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C65" s="15" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A66" s="15">
-        <v>4109190038</v>
-      </c>
-      <c r="B66" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C66" s="15" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A67" s="15">
-        <v>4109510118</v>
-      </c>
-      <c r="B67" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C67" s="15" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A68" s="15">
-        <v>4109510144</v>
-      </c>
-      <c r="B68" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C68" s="15" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A69" s="15">
-        <v>4109640134</v>
-      </c>
-      <c r="B69" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C69" s="15" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A70" s="15">
-        <v>4109660220</v>
-      </c>
-      <c r="B70" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C70" s="15" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A71" s="15">
-        <v>4109730016</v>
-      </c>
-      <c r="B71" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C71" s="15" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A72" s="15">
-        <v>4109950009</v>
-      </c>
-      <c r="B72" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C72" s="15" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A73" s="15">
-        <v>4110040121</v>
-      </c>
-      <c r="B73" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C73" s="15" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A74" s="15">
-        <v>4110290104</v>
-      </c>
-      <c r="B74" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C74" s="15" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A75" s="15">
-        <v>4110380068</v>
-      </c>
-      <c r="B75" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C75" s="15" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A76" s="15">
-        <v>4110410030</v>
-      </c>
-      <c r="B76" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C76" s="15" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A77" s="15">
-        <v>4111260009</v>
-      </c>
-      <c r="B77" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C77" s="15" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A78" s="15">
-        <v>4111310006</v>
-      </c>
-      <c r="B78" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C78" s="15" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A79" s="15">
-        <v>4111340022</v>
-      </c>
-      <c r="B79" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C79" s="15" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A80" s="15">
-        <v>4111370146</v>
-      </c>
-      <c r="B80" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C80" s="15" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A81" s="15">
-        <v>4111410088</v>
-      </c>
-      <c r="B81" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C81" s="15" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A82" s="15">
-        <v>4111640028</v>
-      </c>
-      <c r="B82" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C82" s="15" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A83" s="15">
-        <v>4111640071</v>
-      </c>
-      <c r="B83" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C83" s="15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A84" s="15">
-        <v>4113060028</v>
-      </c>
-      <c r="B84" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C84" s="15" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A85" s="15">
-        <v>4114790029</v>
-      </c>
-      <c r="B85" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C85" s="15" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A86" s="15">
-        <v>4116100024</v>
-      </c>
-      <c r="B86" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C86" s="15" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A87" s="15">
-        <v>4116140043</v>
-      </c>
-      <c r="B87" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C87" s="15" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A88" s="15">
-        <v>4116990051</v>
-      </c>
-      <c r="B88" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C88" s="15" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A89" s="15">
-        <v>4117550005</v>
-      </c>
-      <c r="B89" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C89" s="15" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A90" s="15">
-        <v>4117740550</v>
-      </c>
-      <c r="B90" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C90" s="15" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A91" s="15">
-        <v>4117740559</v>
-      </c>
-      <c r="B91" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C91" s="15" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A92" s="15">
-        <v>4117750206</v>
-      </c>
-      <c r="B92" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C92" s="15" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A93" s="15">
-        <v>4117810267</v>
-      </c>
-      <c r="B93" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C93" s="15" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A94" s="15">
-        <v>4117930074</v>
-      </c>
-      <c r="B94" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C94" s="15" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A95" s="15">
-        <v>4117960007</v>
-      </c>
-      <c r="B95" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C95" s="15" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A96" s="15">
-        <v>4119750013</v>
-      </c>
-      <c r="B96" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C96" s="15" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A97" s="15">
-        <v>4119790022</v>
-      </c>
-      <c r="B97" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C97" s="15" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A98" s="15">
-        <v>4119920097</v>
-      </c>
-      <c r="B98" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C98" s="15" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A99" s="15">
-        <v>4119960131</v>
-      </c>
-      <c r="B99" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C99" s="15" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A100" s="15">
-        <v>4120420009</v>
-      </c>
-      <c r="B100" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C100" s="15" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A101" s="15">
-        <v>4120500042</v>
-      </c>
-      <c r="B101" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C101" s="15" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A102" s="15">
-        <v>4120650168</v>
-      </c>
-      <c r="B102" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C102" s="15" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A103" s="15">
-        <v>4121060024</v>
-      </c>
-      <c r="B103" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C103" s="15" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A104" s="15">
-        <v>4121110049</v>
-      </c>
-      <c r="B104" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C104" s="15" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A105" s="15">
-        <v>4121160022</v>
-      </c>
-      <c r="B105" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C105" s="15" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A106" s="15">
-        <v>4122050012</v>
-      </c>
-      <c r="B106" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C106" s="15" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A107" s="15">
-        <v>4122190048</v>
-      </c>
-      <c r="B107" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C107" s="15" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A108" s="15">
-        <v>4124030106</v>
-      </c>
-      <c r="B108" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C108" s="15" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A109" s="15">
-        <v>4126160031</v>
-      </c>
-      <c r="B109" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C109" s="15" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A110" s="15">
-        <v>4126220029</v>
-      </c>
-      <c r="B110" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C110" s="15" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A111" s="15">
-        <v>4126680034</v>
-      </c>
-      <c r="B111" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C111" s="15" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A112" s="15">
-        <v>4127360038</v>
-      </c>
-      <c r="B112" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C112" s="15" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A113" s="15">
-        <v>4127730135</v>
-      </c>
-      <c r="B113" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C113" s="15" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A114" s="15">
-        <v>4129310082</v>
-      </c>
-      <c r="B114" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C114" s="15" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A115" s="15">
-        <v>4129340127</v>
-      </c>
-      <c r="B115" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C115" s="15" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A116" s="15">
-        <v>4129340129</v>
-      </c>
-      <c r="B116" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C116" s="15" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A117" s="15">
-        <v>4129340175</v>
-      </c>
-      <c r="B117" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C117" s="15" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A118" s="15">
-        <v>4129610047</v>
-      </c>
-      <c r="B118" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C118" s="15" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A119" s="15">
-        <v>4129770034</v>
-      </c>
-      <c r="B119" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C119" s="15" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A120" s="15">
-        <v>4130450028</v>
-      </c>
-      <c r="B120" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C120" s="15" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A121" s="15">
-        <v>4131010032</v>
-      </c>
-      <c r="B121" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C121" s="15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A122" s="15">
-        <v>4131160020</v>
-      </c>
-      <c r="B122" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C122" s="15" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A123" s="15">
-        <v>4131280004</v>
-      </c>
-      <c r="B123" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C123" s="15" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A124" s="15">
-        <v>4131920225</v>
-      </c>
-      <c r="B124" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C124" s="15" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A125" s="15">
-        <v>4132850057</v>
-      </c>
-      <c r="B125" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C125" s="15" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A126" s="15">
-        <v>4133590025</v>
-      </c>
-      <c r="B126" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C126" s="15" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A127" s="15">
-        <v>4134850051</v>
-      </c>
-      <c r="B127" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C127" s="15" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A128" s="15">
-        <v>4158900054</v>
-      </c>
-      <c r="B128" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C128" s="15" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A129" s="15">
-        <v>5012270037</v>
-      </c>
-      <c r="B129" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C129" s="15" t="s">
-        <v>356</v>
+      <c r="D129">
+        <v>49050</v>
+      </c>
+      <c r="E129">
+        <v>425700</v>
+      </c>
+      <c r="F129">
+        <v>303375</v>
+      </c>
+      <c r="G129">
+        <f t="shared" si="1"/>
+        <v>122325</v>
       </c>
     </row>
   </sheetData>

--- a/ownername 2020-03/OwnerName Research Results.xlsx
+++ b/ownername 2020-03/OwnerName Research Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Documents\DCP\db-pluto-research\ownername 2020-03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A5C737-A370-4479-A471-F33F7328C128}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{05C00FC3-D509-4815-B9E8-88452A1B35C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Corrections File" sheetId="1" r:id="rId1"/>
@@ -2024,7 +2024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="G58" sqref="G58"/>
@@ -8311,7 +8311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF02D43-A578-4DFB-8450-754A6F72A4A9}">
   <dimension ref="A1:G129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
